--- a/docs/planeamento.xlsx
+++ b/docs/planeamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\ptdw-gr2-2018\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CE708-692B-4A8A-AFF4-BCE8F03FE50A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5FF2D-E4B8-421C-8510-6651356BAE24}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeamento" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Html</t>
-  </si>
-  <si>
-    <t>Responsabilidade (%)</t>
   </si>
   <si>
     <t>Desenvolvimento de Mockups</t>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>6.4</t>
+  </si>
+  <si>
+    <t>Responsabilidade(%)</t>
   </si>
 </sst>
 </file>
@@ -872,17 +872,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:EU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="73.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="13" max="121" width="2.7109375" customWidth="1"/>
     <col min="122" max="151" width="9.140625" customWidth="1"/>
   </cols>
@@ -1737,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
@@ -1887,7 +1888,7 @@
     <row r="5" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="30"/>
@@ -2043,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="22">
         <v>3</v>
@@ -2068,7 +2069,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="12"/>
@@ -2216,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="22">
         <v>0</v>
@@ -2562,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22">
         <v>7</v>
@@ -2735,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="22">
         <v>7</v>
@@ -3061,10 +3062,10 @@
     </row>
     <row r="12" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="22">
         <v>7</v>
@@ -3234,10 +3235,10 @@
     </row>
     <row r="13" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="22">
         <v>3</v>
@@ -3250,19 +3251,19 @@
         <v>43390</v>
       </c>
       <c r="G13" s="20">
+        <v>50</v>
+      </c>
+      <c r="H13" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="21">
-        <v>33</v>
-      </c>
       <c r="I13" s="21">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J13" s="21">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K13" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="12"/>
@@ -3407,10 +3408,10 @@
     </row>
     <row r="14" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="22">
         <v>3</v>
@@ -3422,11 +3423,21 @@
         <f t="shared" si="100"/>
         <v>43394</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>33</v>
+      </c>
+      <c r="I14" s="21">
+        <v>33</v>
+      </c>
+      <c r="J14" s="21">
+        <v>33</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="12"/>
       <c r="N14" s="4"/>
@@ -3570,10 +3581,10 @@
     </row>
     <row r="15" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="33">
         <v>3</v>
@@ -3586,19 +3597,19 @@
         <v>43394</v>
       </c>
       <c r="G15" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H15" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I15" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K15" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="12"/>
@@ -3746,7 +3757,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="33">
         <v>1</v>
@@ -4088,7 +4099,7 @@
     <row r="18" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="30"/>
@@ -4397,10 +4408,10 @@
     </row>
     <row r="20" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="22">
         <v>7</v>
@@ -4570,10 +4581,10 @@
     </row>
     <row r="21" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B21" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="22">
         <v>14</v>
@@ -4899,7 +4910,7 @@
     </row>
     <row r="23" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>20</v>
@@ -5072,10 +5083,10 @@
     </row>
     <row r="24" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="22">
         <v>30</v>
@@ -5245,10 +5256,10 @@
     </row>
     <row r="25" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="22">
         <v>30</v>
@@ -5418,10 +5429,10 @@
     </row>
     <row r="26" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="22">
         <v>30</v>
@@ -5926,7 +5937,7 @@
     <row r="29" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
       <c r="C29" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="30"/>
@@ -6599,7 +6610,7 @@
     <row r="33" spans="2:151" x14ac:dyDescent="0.25">
       <c r="B33" s="39"/>
       <c r="C33" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="22">
         <v>0</v>
@@ -6772,16 +6783,16 @@
         <v>13</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="36" t="s">
-        <v>31</v>
-      </c>
       <c r="K34" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:151" x14ac:dyDescent="0.25">
@@ -6972,25 +6983,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC2BBF5-5005-4D09-A03F-383FBB658F49}">
-  <dimension ref="B1:AK40"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="73.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="37" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -7008,19 +7035,19 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
     </row>
-    <row r="3" spans="2:37" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
@@ -7038,35 +7065,33 @@
       <c r="X3" s="40"/>
       <c r="Y3" s="40"/>
       <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="C4" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="22">
+        <v>3</v>
+      </c>
+      <c r="E4" s="20">
+        <v>20</v>
+      </c>
+      <c r="F4" s="20">
+        <v>20</v>
+      </c>
+      <c r="G4" s="20">
+        <v>20</v>
+      </c>
+      <c r="H4" s="20">
+        <v>20</v>
+      </c>
+      <c r="I4" s="20">
+        <v>20</v>
+      </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -7084,29 +7109,33 @@
       <c r="X4" s="40"/>
       <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="37">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>50</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>50</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -7124,39 +7153,29 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D6" s="22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="20">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G6" s="20">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H6" s="20">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I6" s="20">
         <v>0</v>
@@ -7178,36 +7197,26 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" s="20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" s="20">
         <v>0</v>
       </c>
       <c r="G7" s="20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="20">
         <v>0</v>
@@ -7232,42 +7241,32 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D8" s="22">
         <v>7</v>
       </c>
       <c r="E8" s="20">
+        <v>50</v>
+      </c>
+      <c r="F8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="20">
-        <v>33</v>
-      </c>
-      <c r="G8" s="20">
-        <v>33</v>
-      </c>
-      <c r="H8" s="20">
-        <v>33</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="G8" s="21">
         <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>50</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -7286,43 +7285,21 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
-        <v>4</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="22">
-        <v>7</v>
-      </c>
-      <c r="E9" s="20">
-        <v>50</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>50</v>
-      </c>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="38">
+        <v>6</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -7340,42 +7317,32 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
-        <v>5</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>41</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="22">
         <v>7</v>
       </c>
       <c r="E10" s="20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F10" s="21">
+        <v>33</v>
+      </c>
+      <c r="G10" s="21">
+        <v>33</v>
+      </c>
+      <c r="H10" s="21">
+        <v>33</v>
+      </c>
+      <c r="I10" s="21">
         <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>50</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -7394,31 +7361,33 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="38">
-        <v>6</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="E11" s="20">
+        <v>50</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <v>50</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -7436,27 +7405,17 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D12" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12" s="20">
         <v>0</v>
@@ -7490,42 +7449,32 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="22">
+        <v>48</v>
+      </c>
+      <c r="D13" s="33">
         <v>3</v>
       </c>
       <c r="E13" s="20">
+        <v>50</v>
+      </c>
+      <c r="F13" s="20">
         <v>0</v>
       </c>
-      <c r="F13" s="21">
-        <v>33</v>
-      </c>
-      <c r="G13" s="21">
-        <v>33</v>
-      </c>
-      <c r="H13" s="21">
-        <v>33</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="G13" s="20">
         <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>50</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -7544,33 +7493,33 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="22">
-        <v>3</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="37">
+        <v>7</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="33">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>20</v>
+      </c>
+      <c r="F14" s="20">
+        <v>20</v>
+      </c>
+      <c r="G14" s="20">
+        <v>20</v>
+      </c>
+      <c r="H14" s="20">
+        <v>20</v>
+      </c>
+      <c r="I14" s="20">
+        <v>20</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -7588,27 +7537,15 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="33">
-        <v>3</v>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0</v>
       </c>
       <c r="E15" s="20">
         <v>20</v>
@@ -7642,43 +7579,19 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="37">
-        <v>7</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="33">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>20</v>
-      </c>
-      <c r="F16" s="20">
-        <v>20</v>
-      </c>
-      <c r="G16" s="20">
-        <v>20</v>
-      </c>
-      <c r="H16" s="20">
-        <v>20</v>
-      </c>
-      <c r="I16" s="20">
-        <v>20</v>
-      </c>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -7696,41 +7609,21 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <v>20</v>
-      </c>
-      <c r="F17" s="20">
-        <v>20</v>
-      </c>
-      <c r="G17" s="20">
-        <v>20</v>
-      </c>
-      <c r="H17" s="20">
-        <v>20</v>
-      </c>
-      <c r="I17" s="20">
-        <v>20</v>
-      </c>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="38">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -7748,29 +7641,33 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="22">
+        <v>7</v>
+      </c>
+      <c r="E18" s="21">
+        <v>50</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>50</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -7788,31 +7685,33 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B19" s="38">
-        <v>8</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="22">
+        <v>14</v>
+      </c>
+      <c r="E19" s="21">
+        <v>50</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>50</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -7830,43 +7729,21 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="22">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="38">
+        <v>9</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="21">
-        <v>50</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20">
-        <v>50</v>
-      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -7884,42 +7761,32 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>26</v>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="22">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E21" s="21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F21" s="20">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G21" s="20">
+        <v>20</v>
       </c>
       <c r="H21" s="20">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="I21" s="21">
+        <v>20</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -7938,31 +7805,33 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B22" s="38">
-        <v>9</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="22">
+        <v>30</v>
+      </c>
+      <c r="E22" s="21">
+        <v>20</v>
+      </c>
+      <c r="F22" s="20">
+        <v>20</v>
+      </c>
+      <c r="G22" s="20">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20">
+        <v>20</v>
+      </c>
+      <c r="I22" s="21">
+        <v>20</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -7980,24 +7849,14 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
       <c r="B23" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" s="22">
         <v>30</v>
@@ -8034,24 +7893,14 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="22">
         <v>30</v>
@@ -8088,29 +7937,19 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>24</v>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="37">
+        <v>10</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="D25" s="22">
-        <v>30</v>
-      </c>
-      <c r="E25" s="21">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20">
         <v>20</v>
       </c>
       <c r="F25" s="20">
@@ -8122,7 +7961,7 @@
       <c r="H25" s="20">
         <v>20</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>20</v>
       </c>
       <c r="J25" s="9"/>
@@ -8142,43 +7981,21 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>27</v>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="22">
-        <v>30</v>
-      </c>
-      <c r="E26" s="21">
-        <v>20</v>
-      </c>
-      <c r="F26" s="20">
-        <v>20</v>
-      </c>
-      <c r="G26" s="20">
-        <v>20</v>
-      </c>
-      <c r="H26" s="20">
-        <v>20</v>
-      </c>
-      <c r="I26" s="21">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -8196,43 +8013,19 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B27" s="37">
-        <v>10</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="22">
-        <v>4</v>
-      </c>
-      <c r="E27" s="20">
-        <v>20</v>
-      </c>
-      <c r="F27" s="20">
-        <v>20</v>
-      </c>
-      <c r="G27" s="20">
-        <v>20</v>
-      </c>
-      <c r="H27" s="20">
-        <v>20</v>
-      </c>
-      <c r="I27" s="20">
-        <v>20</v>
-      </c>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -8250,31 +8043,33 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="37">
+        <v>11</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="35">
+        <v>10</v>
+      </c>
+      <c r="E28" s="20">
+        <v>20</v>
+      </c>
+      <c r="F28" s="20">
+        <v>20</v>
+      </c>
+      <c r="G28" s="20">
+        <v>20</v>
+      </c>
+      <c r="H28" s="20">
+        <v>20</v>
+      </c>
+      <c r="I28" s="20">
+        <v>20</v>
+      </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -8292,29 +8087,33 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="37">
+        <v>12</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="22">
+        <v>15</v>
+      </c>
+      <c r="E29" s="20">
+        <v>20</v>
+      </c>
+      <c r="F29" s="20">
+        <v>20</v>
+      </c>
+      <c r="G29" s="20">
+        <v>20</v>
+      </c>
+      <c r="H29" s="20">
+        <v>20</v>
+      </c>
+      <c r="I29" s="20">
+        <v>20</v>
+      </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -8332,27 +8131,17 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" s="37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="35">
         <v>10</v>
+      </c>
+      <c r="D30" s="22">
+        <v>7</v>
       </c>
       <c r="E30" s="20">
         <v>20</v>
@@ -8386,27 +8175,15 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B31" s="37">
-        <v>12</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>9</v>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="D31" s="22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E31" s="20">
         <v>20</v>
@@ -8440,42 +8217,26 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B32" s="37">
+    <row r="32" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="22">
-        <v>7</v>
-      </c>
-      <c r="E32" s="20">
-        <v>20</v>
-      </c>
-      <c r="F32" s="20">
-        <v>20</v>
-      </c>
-      <c r="G32" s="20">
-        <v>20</v>
-      </c>
-      <c r="H32" s="20">
-        <v>20</v>
-      </c>
-      <c r="I32" s="20">
-        <v>20</v>
+      <c r="F32" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -8494,41 +8255,17 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
-        <v>20</v>
-      </c>
-      <c r="F33" s="20">
-        <v>20</v>
-      </c>
-      <c r="G33" s="20">
-        <v>20</v>
-      </c>
-      <c r="H33" s="20">
-        <v>20</v>
-      </c>
-      <c r="I33" s="20">
-        <v>20</v>
-      </c>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -8546,84 +8283,29 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
     </row>
-    <row r="34" spans="2:37" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-    </row>
+    <row r="34" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="19">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/planeamento.xlsx
+++ b/docs/planeamento.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\ptdw-gr2-2018\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26FED2B-71C7-41E6-8A43-13780F8C07CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE2D0E1-2368-4E79-A9DB-5CF12B99912C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planeamento" sheetId="1" r:id="rId1"/>
-    <sheet name="Executado" sheetId="3" r:id="rId2"/>
-    <sheet name="Esforço Planeado" sheetId="2" r:id="rId3"/>
+    <sheet name="Esforço Planeado" sheetId="2" r:id="rId2"/>
+    <sheet name="Executado" sheetId="3" r:id="rId3"/>
     <sheet name="Esforço Executado" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="57">
   <si>
     <t>Nº</t>
   </si>
@@ -495,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,6 +701,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1141,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:EO39"/>
+  <dimension ref="B1:ET39"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:DK35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,353 +1162,349 @@
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="3.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="15" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="35" width="2.7109375" style="17" customWidth="1"/>
-    <col min="36" max="36" width="2.7109375" style="43" customWidth="1"/>
-    <col min="37" max="115" width="2.7109375" style="17" customWidth="1"/>
-    <col min="116" max="145" width="9.140625" style="17" customWidth="1"/>
-    <col min="146" max="16384" width="9.140625" style="17"/>
+    <col min="4" max="8" width="3.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="40" width="2.7109375" style="17" customWidth="1"/>
+    <col min="41" max="41" width="2.7109375" style="43" customWidth="1"/>
+    <col min="42" max="120" width="2.7109375" style="17" customWidth="1"/>
+    <col min="121" max="150" width="9.140625" style="17" customWidth="1"/>
+    <col min="151" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="2:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="17"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="2:145" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="18" t="s">
+    <row r="2" spans="2:150" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="Z2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AF2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AG2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AH2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AI2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AM2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AN2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AP2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AT2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AQ2" s="19" t="s">
+      <c r="AV2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AW2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AX2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="BA2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AW2" s="19" t="s">
+      <c r="BB2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="19" t="s">
+      <c r="BC2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" s="19" t="s">
+      <c r="BD2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" s="19" t="s">
+      <c r="BE2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BH2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="19" t="s">
+      <c r="BI2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BE2" s="19" t="s">
+      <c r="BJ2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BF2" s="19" t="s">
+      <c r="BK2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BG2" s="19" t="s">
+      <c r="BL2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BJ2" s="19" t="s">
+      <c r="BO2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BK2" s="19" t="s">
+      <c r="BP2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BL2" s="19" t="s">
+      <c r="BQ2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BM2" s="19" t="s">
+      <c r="BR2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BN2" s="19" t="s">
+      <c r="BS2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BU2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="19" t="s">
+      <c r="BV2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="19" t="s">
+      <c r="BW2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="19" t="s">
+      <c r="BX2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BT2" s="19" t="s">
+      <c r="BY2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="BU2" s="19" t="s">
+      <c r="BZ2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" s="19" t="s">
+      <c r="CC2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BY2" s="19" t="s">
+      <c r="CD2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BZ2" s="19" t="s">
+      <c r="CE2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="19" t="s">
+      <c r="CF2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="19" t="s">
+      <c r="CG2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="CE2" s="19" t="s">
+      <c r="CJ2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CF2" s="19" t="s">
+      <c r="CK2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="CG2" s="19" t="s">
+      <c r="CL2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CH2" s="19" t="s">
+      <c r="CM2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CI2" s="19" t="s">
+      <c r="CN2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="CL2" s="19" t="s">
+      <c r="CQ2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CM2" s="19" t="s">
+      <c r="CR2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="CN2" s="19" t="s">
+      <c r="CS2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CO2" s="19" t="s">
+      <c r="CT2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CP2" s="19" t="s">
+      <c r="CU2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CV2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="CS2" s="19" t="s">
+      <c r="CX2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CT2" s="19" t="s">
+      <c r="CY2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="CU2" s="19" t="s">
+      <c r="CZ2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CV2" s="19" t="s">
+      <c r="DA2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CW2" s="19" t="s">
+      <c r="DB2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="DC2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="CY2" s="2" t="s">
+      <c r="DD2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="CZ2" s="19" t="s">
+      <c r="DE2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="DA2" s="19" t="s">
+      <c r="DF2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="DB2" s="19" t="s">
+      <c r="DG2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="DC2" s="19" t="s">
+      <c r="DH2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="DD2" s="19" t="s">
+      <c r="DI2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="DE2" s="2" t="s">
+      <c r="DJ2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="DF2" s="2" t="s">
+      <c r="DK2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="DG2" s="19" t="s">
+      <c r="DL2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="DH2" s="19" t="s">
+      <c r="DM2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="DI2" s="19" t="s">
+      <c r="DN2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="DJ2" s="19" t="s">
+      <c r="DO2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="DK2" s="8" t="s">
+      <c r="DP2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" s="20"/>
-      <c r="DM2" s="20"/>
-      <c r="DN2" s="20"/>
-      <c r="DO2" s="20"/>
-      <c r="DP2" s="20"/>
       <c r="DQ2" s="20"/>
       <c r="DR2" s="20"/>
       <c r="DS2" s="20"/>
@@ -1524,450 +1530,450 @@
       <c r="EM2" s="20"/>
       <c r="EN2" s="20"/>
       <c r="EO2" s="20"/>
+      <c r="EP2" s="20"/>
+      <c r="EQ2" s="20"/>
+      <c r="ER2" s="20"/>
+      <c r="ES2" s="20"/>
+      <c r="ET2" s="20"/>
     </row>
-    <row r="3" spans="2:145" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="58">
+    <row r="3" spans="2:150" s="15" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="58">
         <v>43368</v>
       </c>
-      <c r="H3" s="57">
-        <f>G3+1</f>
+      <c r="M3" s="57">
+        <f>L3+1</f>
         <v>43369</v>
       </c>
-      <c r="I3" s="57">
-        <f t="shared" ref="I3:Q3" si="0">H3+1</f>
+      <c r="N3" s="57">
+        <f t="shared" ref="N3:V3" si="0">M3+1</f>
         <v>43370</v>
       </c>
-      <c r="J3" s="61">
+      <c r="O3" s="61">
         <f t="shared" si="0"/>
         <v>43371</v>
       </c>
-      <c r="K3" s="63">
+      <c r="P3" s="63">
         <f t="shared" si="0"/>
         <v>43372</v>
       </c>
-      <c r="L3" s="63">
+      <c r="Q3" s="63">
         <f t="shared" si="0"/>
         <v>43373</v>
       </c>
-      <c r="M3" s="57">
+      <c r="R3" s="57">
         <f t="shared" si="0"/>
         <v>43374</v>
       </c>
-      <c r="N3" s="57">
+      <c r="S3" s="57">
         <f t="shared" si="0"/>
         <v>43375</v>
       </c>
-      <c r="O3" s="57">
+      <c r="T3" s="57">
         <f t="shared" si="0"/>
         <v>43376</v>
       </c>
-      <c r="P3" s="57">
+      <c r="U3" s="57">
         <f t="shared" si="0"/>
         <v>43377</v>
       </c>
-      <c r="Q3" s="61">
+      <c r="V3" s="61">
         <f t="shared" si="0"/>
         <v>43378</v>
       </c>
-      <c r="R3" s="63">
-        <f t="shared" ref="R3" si="1">Q3+1</f>
+      <c r="W3" s="63">
+        <f t="shared" ref="W3" si="1">V3+1</f>
         <v>43379</v>
       </c>
-      <c r="S3" s="63">
-        <f t="shared" ref="S3" si="2">R3+1</f>
+      <c r="X3" s="63">
+        <f t="shared" ref="X3" si="2">W3+1</f>
         <v>43380</v>
       </c>
-      <c r="T3" s="57">
-        <f t="shared" ref="T3" si="3">S3+1</f>
+      <c r="Y3" s="57">
+        <f t="shared" ref="Y3" si="3">X3+1</f>
         <v>43381</v>
       </c>
-      <c r="U3" s="57">
-        <f t="shared" ref="U3" si="4">T3+1</f>
+      <c r="Z3" s="57">
+        <f t="shared" ref="Z3" si="4">Y3+1</f>
         <v>43382</v>
       </c>
-      <c r="V3" s="57">
-        <f t="shared" ref="V3" si="5">U3+1</f>
+      <c r="AA3" s="57">
+        <f t="shared" ref="AA3" si="5">Z3+1</f>
         <v>43383</v>
       </c>
-      <c r="W3" s="57">
-        <f t="shared" ref="W3" si="6">V3+1</f>
+      <c r="AB3" s="57">
+        <f t="shared" ref="AB3" si="6">AA3+1</f>
         <v>43384</v>
       </c>
-      <c r="X3" s="61">
-        <f t="shared" ref="X3" si="7">W3+1</f>
+      <c r="AC3" s="61">
+        <f t="shared" ref="AC3" si="7">AB3+1</f>
         <v>43385</v>
       </c>
-      <c r="Y3" s="63">
-        <f t="shared" ref="Y3" si="8">X3+1</f>
+      <c r="AD3" s="63">
+        <f t="shared" ref="AD3" si="8">AC3+1</f>
         <v>43386</v>
       </c>
-      <c r="Z3" s="63">
-        <f t="shared" ref="Z3" si="9">Y3+1</f>
+      <c r="AE3" s="63">
+        <f t="shared" ref="AE3" si="9">AD3+1</f>
         <v>43387</v>
       </c>
-      <c r="AA3" s="57">
-        <f t="shared" ref="AA3" si="10">Z3+1</f>
+      <c r="AF3" s="57">
+        <f t="shared" ref="AF3" si="10">AE3+1</f>
         <v>43388</v>
       </c>
-      <c r="AB3" s="57">
-        <f t="shared" ref="AB3" si="11">AA3+1</f>
+      <c r="AG3" s="57">
+        <f t="shared" ref="AG3" si="11">AF3+1</f>
         <v>43389</v>
       </c>
-      <c r="AC3" s="57">
-        <f t="shared" ref="AC3" si="12">AB3+1</f>
+      <c r="AH3" s="57">
+        <f t="shared" ref="AH3" si="12">AG3+1</f>
         <v>43390</v>
       </c>
-      <c r="AD3" s="57">
-        <f t="shared" ref="AD3" si="13">AC3+1</f>
+      <c r="AI3" s="57">
+        <f t="shared" ref="AI3" si="13">AH3+1</f>
         <v>43391</v>
       </c>
-      <c r="AE3" s="61">
-        <f t="shared" ref="AE3" si="14">AD3+1</f>
+      <c r="AJ3" s="61">
+        <f t="shared" ref="AJ3" si="14">AI3+1</f>
         <v>43392</v>
       </c>
-      <c r="AF3" s="63">
-        <f t="shared" ref="AF3" si="15">AE3+1</f>
+      <c r="AK3" s="63">
+        <f t="shared" ref="AK3" si="15">AJ3+1</f>
         <v>43393</v>
       </c>
-      <c r="AG3" s="63">
-        <f t="shared" ref="AG3" si="16">AF3+1</f>
+      <c r="AL3" s="63">
+        <f t="shared" ref="AL3" si="16">AK3+1</f>
         <v>43394</v>
       </c>
-      <c r="AH3" s="57">
-        <f t="shared" ref="AH3" si="17">AG3+1</f>
+      <c r="AM3" s="57">
+        <f t="shared" ref="AM3" si="17">AL3+1</f>
         <v>43395</v>
       </c>
-      <c r="AI3" s="57">
-        <f t="shared" ref="AI3" si="18">AH3+1</f>
+      <c r="AN3" s="57">
+        <f t="shared" ref="AN3" si="18">AM3+1</f>
         <v>43396</v>
       </c>
-      <c r="AJ3" s="69">
-        <f t="shared" ref="AJ3" si="19">AI3+1</f>
+      <c r="AO3" s="69">
+        <f t="shared" ref="AO3" si="19">AN3+1</f>
         <v>43397</v>
       </c>
-      <c r="AK3" s="57">
-        <f t="shared" ref="AK3" si="20">AJ3+1</f>
+      <c r="AP3" s="57">
+        <f t="shared" ref="AP3" si="20">AO3+1</f>
         <v>43398</v>
       </c>
-      <c r="AL3" s="61">
-        <f t="shared" ref="AL3" si="21">AK3+1</f>
+      <c r="AQ3" s="61">
+        <f t="shared" ref="AQ3" si="21">AP3+1</f>
         <v>43399</v>
       </c>
-      <c r="AM3" s="63">
-        <f t="shared" ref="AM3" si="22">AL3+1</f>
+      <c r="AR3" s="63">
+        <f t="shared" ref="AR3" si="22">AQ3+1</f>
         <v>43400</v>
       </c>
-      <c r="AN3" s="67">
-        <f t="shared" ref="AN3" si="23">AM3+1</f>
+      <c r="AS3" s="67">
+        <f t="shared" ref="AS3" si="23">AR3+1</f>
         <v>43401</v>
       </c>
-      <c r="AO3" s="57">
-        <f t="shared" ref="AO3" si="24">AN3+1</f>
+      <c r="AT3" s="57">
+        <f t="shared" ref="AT3" si="24">AS3+1</f>
         <v>43402</v>
       </c>
-      <c r="AP3" s="57">
-        <f t="shared" ref="AP3" si="25">AO3+1</f>
+      <c r="AU3" s="57">
+        <f t="shared" ref="AU3" si="25">AT3+1</f>
         <v>43403</v>
       </c>
-      <c r="AQ3" s="57">
-        <f t="shared" ref="AQ3" si="26">AP3+1</f>
+      <c r="AV3" s="57">
+        <f t="shared" ref="AV3" si="26">AU3+1</f>
         <v>43404</v>
       </c>
-      <c r="AR3" s="57">
-        <f t="shared" ref="AR3" si="27">AQ3+1</f>
+      <c r="AW3" s="57">
+        <f t="shared" ref="AW3" si="27">AV3+1</f>
         <v>43405</v>
       </c>
-      <c r="AS3" s="61">
-        <f t="shared" ref="AS3" si="28">AR3+1</f>
+      <c r="AX3" s="61">
+        <f t="shared" ref="AX3" si="28">AW3+1</f>
         <v>43406</v>
       </c>
-      <c r="AT3" s="63">
-        <f t="shared" ref="AT3" si="29">AS3+1</f>
+      <c r="AY3" s="63">
+        <f t="shared" ref="AY3" si="29">AX3+1</f>
         <v>43407</v>
       </c>
-      <c r="AU3" s="63">
-        <f t="shared" ref="AU3" si="30">AT3+1</f>
+      <c r="AZ3" s="63">
+        <f t="shared" ref="AZ3" si="30">AY3+1</f>
         <v>43408</v>
       </c>
-      <c r="AV3" s="57">
-        <f t="shared" ref="AV3" si="31">AU3+1</f>
+      <c r="BA3" s="57">
+        <f t="shared" ref="BA3" si="31">AZ3+1</f>
         <v>43409</v>
       </c>
-      <c r="AW3" s="57">
-        <f t="shared" ref="AW3" si="32">AV3+1</f>
+      <c r="BB3" s="57">
+        <f t="shared" ref="BB3" si="32">BA3+1</f>
         <v>43410</v>
       </c>
-      <c r="AX3" s="57">
-        <f t="shared" ref="AX3" si="33">AW3+1</f>
+      <c r="BC3" s="57">
+        <f t="shared" ref="BC3" si="33">BB3+1</f>
         <v>43411</v>
       </c>
-      <c r="AY3" s="57">
-        <f t="shared" ref="AY3" si="34">AX3+1</f>
+      <c r="BD3" s="57">
+        <f t="shared" ref="BD3" si="34">BC3+1</f>
         <v>43412</v>
       </c>
-      <c r="AZ3" s="61">
-        <f t="shared" ref="AZ3" si="35">AY3+1</f>
+      <c r="BE3" s="61">
+        <f t="shared" ref="BE3" si="35">BD3+1</f>
         <v>43413</v>
       </c>
-      <c r="BA3" s="63">
-        <f t="shared" ref="BA3" si="36">AZ3+1</f>
+      <c r="BF3" s="63">
+        <f t="shared" ref="BF3" si="36">BE3+1</f>
         <v>43414</v>
       </c>
-      <c r="BB3" s="63">
-        <f t="shared" ref="BB3" si="37">BA3+1</f>
+      <c r="BG3" s="63">
+        <f t="shared" ref="BG3" si="37">BF3+1</f>
         <v>43415</v>
       </c>
-      <c r="BC3" s="57">
-        <f t="shared" ref="BC3" si="38">BB3+1</f>
+      <c r="BH3" s="57">
+        <f t="shared" ref="BH3" si="38">BG3+1</f>
         <v>43416</v>
       </c>
-      <c r="BD3" s="57">
-        <f t="shared" ref="BD3" si="39">BC3+1</f>
+      <c r="BI3" s="57">
+        <f t="shared" ref="BI3" si="39">BH3+1</f>
         <v>43417</v>
       </c>
-      <c r="BE3" s="57">
-        <f t="shared" ref="BE3" si="40">BD3+1</f>
+      <c r="BJ3" s="57">
+        <f t="shared" ref="BJ3" si="40">BI3+1</f>
         <v>43418</v>
       </c>
-      <c r="BF3" s="57">
-        <f t="shared" ref="BF3" si="41">BE3+1</f>
+      <c r="BK3" s="57">
+        <f t="shared" ref="BK3" si="41">BJ3+1</f>
         <v>43419</v>
       </c>
-      <c r="BG3" s="61">
-        <f t="shared" ref="BG3" si="42">BF3+1</f>
+      <c r="BL3" s="61">
+        <f t="shared" ref="BL3" si="42">BK3+1</f>
         <v>43420</v>
       </c>
-      <c r="BH3" s="63">
-        <f t="shared" ref="BH3" si="43">BG3+1</f>
+      <c r="BM3" s="63">
+        <f t="shared" ref="BM3" si="43">BL3+1</f>
         <v>43421</v>
       </c>
-      <c r="BI3" s="63">
-        <f t="shared" ref="BI3" si="44">BH3+1</f>
+      <c r="BN3" s="63">
+        <f t="shared" ref="BN3" si="44">BM3+1</f>
         <v>43422</v>
       </c>
-      <c r="BJ3" s="57">
-        <f t="shared" ref="BJ3" si="45">BI3+1</f>
+      <c r="BO3" s="57">
+        <f t="shared" ref="BO3" si="45">BN3+1</f>
         <v>43423</v>
       </c>
-      <c r="BK3" s="57">
-        <f t="shared" ref="BK3" si="46">BJ3+1</f>
+      <c r="BP3" s="57">
+        <f t="shared" ref="BP3" si="46">BO3+1</f>
         <v>43424</v>
       </c>
-      <c r="BL3" s="57">
-        <f t="shared" ref="BL3" si="47">BK3+1</f>
+      <c r="BQ3" s="57">
+        <f t="shared" ref="BQ3" si="47">BP3+1</f>
         <v>43425</v>
       </c>
-      <c r="BM3" s="57">
-        <f t="shared" ref="BM3" si="48">BL3+1</f>
+      <c r="BR3" s="57">
+        <f t="shared" ref="BR3" si="48">BQ3+1</f>
         <v>43426</v>
       </c>
-      <c r="BN3" s="61">
-        <f t="shared" ref="BN3" si="49">BM3+1</f>
+      <c r="BS3" s="61">
+        <f t="shared" ref="BS3" si="49">BR3+1</f>
         <v>43427</v>
       </c>
-      <c r="BO3" s="63">
-        <f t="shared" ref="BO3" si="50">BN3+1</f>
+      <c r="BT3" s="63">
+        <f t="shared" ref="BT3" si="50">BS3+1</f>
         <v>43428</v>
       </c>
-      <c r="BP3" s="67">
-        <f t="shared" ref="BP3" si="51">BO3+1</f>
+      <c r="BU3" s="67">
+        <f t="shared" ref="BU3" si="51">BT3+1</f>
         <v>43429</v>
       </c>
-      <c r="BQ3" s="57">
-        <f t="shared" ref="BQ3" si="52">BP3+1</f>
+      <c r="BV3" s="57">
+        <f t="shared" ref="BV3" si="52">BU3+1</f>
         <v>43430</v>
       </c>
-      <c r="BR3" s="57">
-        <f t="shared" ref="BR3" si="53">BQ3+1</f>
+      <c r="BW3" s="57">
+        <f t="shared" ref="BW3" si="53">BV3+1</f>
         <v>43431</v>
       </c>
-      <c r="BS3" s="57">
-        <f t="shared" ref="BS3" si="54">BR3+1</f>
+      <c r="BX3" s="57">
+        <f t="shared" ref="BX3" si="54">BW3+1</f>
         <v>43432</v>
       </c>
-      <c r="BT3" s="57">
-        <f t="shared" ref="BT3" si="55">BS3+1</f>
+      <c r="BY3" s="57">
+        <f t="shared" ref="BY3" si="55">BX3+1</f>
         <v>43433</v>
       </c>
-      <c r="BU3" s="61">
-        <f t="shared" ref="BU3" si="56">BT3+1</f>
+      <c r="BZ3" s="61">
+        <f t="shared" ref="BZ3" si="56">BY3+1</f>
         <v>43434</v>
       </c>
-      <c r="BV3" s="63">
-        <f t="shared" ref="BV3" si="57">BU3+1</f>
+      <c r="CA3" s="63">
+        <f t="shared" ref="CA3" si="57">BZ3+1</f>
         <v>43435</v>
       </c>
-      <c r="BW3" s="63">
-        <f t="shared" ref="BW3" si="58">BV3+1</f>
+      <c r="CB3" s="63">
+        <f t="shared" ref="CB3" si="58">CA3+1</f>
         <v>43436</v>
       </c>
-      <c r="BX3" s="57">
-        <f t="shared" ref="BX3" si="59">BW3+1</f>
+      <c r="CC3" s="57">
+        <f t="shared" ref="CC3" si="59">CB3+1</f>
         <v>43437</v>
       </c>
-      <c r="BY3" s="57">
-        <f t="shared" ref="BY3" si="60">BX3+1</f>
+      <c r="CD3" s="57">
+        <f t="shared" ref="CD3" si="60">CC3+1</f>
         <v>43438</v>
       </c>
-      <c r="BZ3" s="57">
-        <f t="shared" ref="BZ3" si="61">BY3+1</f>
+      <c r="CE3" s="57">
+        <f t="shared" ref="CE3" si="61">CD3+1</f>
         <v>43439</v>
       </c>
-      <c r="CA3" s="57">
-        <f t="shared" ref="CA3" si="62">BZ3+1</f>
+      <c r="CF3" s="57">
+        <f t="shared" ref="CF3" si="62">CE3+1</f>
         <v>43440</v>
       </c>
-      <c r="CB3" s="61">
-        <f t="shared" ref="CB3" si="63">CA3+1</f>
+      <c r="CG3" s="61">
+        <f t="shared" ref="CG3" si="63">CF3+1</f>
         <v>43441</v>
       </c>
-      <c r="CC3" s="63">
-        <f t="shared" ref="CC3" si="64">CB3+1</f>
+      <c r="CH3" s="63">
+        <f t="shared" ref="CH3" si="64">CG3+1</f>
         <v>43442</v>
       </c>
-      <c r="CD3" s="63">
-        <f t="shared" ref="CD3" si="65">CC3+1</f>
+      <c r="CI3" s="63">
+        <f t="shared" ref="CI3" si="65">CH3+1</f>
         <v>43443</v>
       </c>
-      <c r="CE3" s="57">
-        <f t="shared" ref="CE3" si="66">CD3+1</f>
+      <c r="CJ3" s="57">
+        <f t="shared" ref="CJ3" si="66">CI3+1</f>
         <v>43444</v>
       </c>
-      <c r="CF3" s="57">
-        <f t="shared" ref="CF3" si="67">CE3+1</f>
+      <c r="CK3" s="57">
+        <f t="shared" ref="CK3" si="67">CJ3+1</f>
         <v>43445</v>
       </c>
-      <c r="CG3" s="57">
-        <f t="shared" ref="CG3" si="68">CF3+1</f>
+      <c r="CL3" s="57">
+        <f t="shared" ref="CL3" si="68">CK3+1</f>
         <v>43446</v>
       </c>
-      <c r="CH3" s="57">
-        <f t="shared" ref="CH3" si="69">CG3+1</f>
+      <c r="CM3" s="57">
+        <f t="shared" ref="CM3" si="69">CL3+1</f>
         <v>43447</v>
       </c>
-      <c r="CI3" s="61">
-        <f t="shared" ref="CI3" si="70">CH3+1</f>
+      <c r="CN3" s="61">
+        <f t="shared" ref="CN3" si="70">CM3+1</f>
         <v>43448</v>
       </c>
-      <c r="CJ3" s="63">
-        <f t="shared" ref="CJ3" si="71">CI3+1</f>
+      <c r="CO3" s="63">
+        <f t="shared" ref="CO3" si="71">CN3+1</f>
         <v>43449</v>
       </c>
-      <c r="CK3" s="63">
-        <f t="shared" ref="CK3" si="72">CJ3+1</f>
+      <c r="CP3" s="63">
+        <f t="shared" ref="CP3" si="72">CO3+1</f>
         <v>43450</v>
       </c>
-      <c r="CL3" s="57">
-        <f t="shared" ref="CL3" si="73">CK3+1</f>
+      <c r="CQ3" s="57">
+        <f t="shared" ref="CQ3" si="73">CP3+1</f>
         <v>43451</v>
       </c>
-      <c r="CM3" s="57">
-        <f t="shared" ref="CM3" si="74">CL3+1</f>
+      <c r="CR3" s="57">
+        <f t="shared" ref="CR3" si="74">CQ3+1</f>
         <v>43452</v>
       </c>
-      <c r="CN3" s="57">
-        <f t="shared" ref="CN3" si="75">CM3+1</f>
+      <c r="CS3" s="57">
+        <f t="shared" ref="CS3" si="75">CR3+1</f>
         <v>43453</v>
       </c>
-      <c r="CO3" s="57">
-        <f t="shared" ref="CO3" si="76">CN3+1</f>
+      <c r="CT3" s="57">
+        <f t="shared" ref="CT3" si="76">CS3+1</f>
         <v>43454</v>
       </c>
-      <c r="CP3" s="61">
-        <f t="shared" ref="CP3" si="77">CO3+1</f>
+      <c r="CU3" s="61">
+        <f t="shared" ref="CU3" si="77">CT3+1</f>
         <v>43455</v>
       </c>
-      <c r="CQ3" s="63">
-        <f t="shared" ref="CQ3" si="78">CP3+1</f>
+      <c r="CV3" s="63">
+        <f t="shared" ref="CV3" si="78">CU3+1</f>
         <v>43456</v>
       </c>
-      <c r="CR3" s="63">
-        <f t="shared" ref="CR3" si="79">CQ3+1</f>
+      <c r="CW3" s="63">
+        <f t="shared" ref="CW3" si="79">CV3+1</f>
         <v>43457</v>
       </c>
-      <c r="CS3" s="57">
-        <f t="shared" ref="CS3" si="80">CR3+1</f>
+      <c r="CX3" s="57">
+        <f t="shared" ref="CX3" si="80">CW3+1</f>
         <v>43458</v>
       </c>
-      <c r="CT3" s="57">
-        <f t="shared" ref="CT3" si="81">CS3+1</f>
+      <c r="CY3" s="57">
+        <f t="shared" ref="CY3" si="81">CX3+1</f>
         <v>43459</v>
       </c>
-      <c r="CU3" s="57">
-        <f t="shared" ref="CU3" si="82">CT3+1</f>
+      <c r="CZ3" s="57">
+        <f t="shared" ref="CZ3" si="82">CY3+1</f>
         <v>43460</v>
       </c>
-      <c r="CV3" s="57">
-        <f t="shared" ref="CV3" si="83">CU3+1</f>
+      <c r="DA3" s="57">
+        <f t="shared" ref="DA3" si="83">CZ3+1</f>
         <v>43461</v>
       </c>
-      <c r="CW3" s="61">
-        <f t="shared" ref="CW3" si="84">CV3+1</f>
+      <c r="DB3" s="61">
+        <f t="shared" ref="DB3" si="84">DA3+1</f>
         <v>43462</v>
       </c>
-      <c r="CX3" s="63">
-        <f t="shared" ref="CX3" si="85">CW3+1</f>
+      <c r="DC3" s="63">
+        <f t="shared" ref="DC3" si="85">DB3+1</f>
         <v>43463</v>
       </c>
-      <c r="CY3" s="63">
-        <f t="shared" ref="CY3" si="86">CX3+1</f>
+      <c r="DD3" s="63">
+        <f t="shared" ref="DD3" si="86">DC3+1</f>
         <v>43464</v>
       </c>
-      <c r="CZ3" s="57">
-        <f t="shared" ref="CZ3" si="87">CY3+1</f>
+      <c r="DE3" s="57">
+        <f t="shared" ref="DE3" si="87">DD3+1</f>
         <v>43465</v>
       </c>
-      <c r="DA3" s="57">
-        <f t="shared" ref="DA3" si="88">CZ3+1</f>
+      <c r="DF3" s="57">
+        <f t="shared" ref="DF3" si="88">DE3+1</f>
         <v>43466</v>
       </c>
-      <c r="DB3" s="57">
-        <f t="shared" ref="DB3" si="89">DA3+1</f>
+      <c r="DG3" s="57">
+        <f t="shared" ref="DG3" si="89">DF3+1</f>
         <v>43467</v>
       </c>
-      <c r="DC3" s="57">
-        <f t="shared" ref="DC3" si="90">DB3+1</f>
+      <c r="DH3" s="57">
+        <f t="shared" ref="DH3" si="90">DG3+1</f>
         <v>43468</v>
       </c>
-      <c r="DD3" s="61">
-        <f t="shared" ref="DD3" si="91">DC3+1</f>
+      <c r="DI3" s="61">
+        <f t="shared" ref="DI3" si="91">DH3+1</f>
         <v>43469</v>
       </c>
-      <c r="DE3" s="63">
-        <f t="shared" ref="DE3" si="92">DD3+1</f>
+      <c r="DJ3" s="63">
+        <f t="shared" ref="DJ3" si="92">DI3+1</f>
         <v>43470</v>
       </c>
-      <c r="DF3" s="63">
-        <f t="shared" ref="DF3" si="93">DE3+1</f>
+      <c r="DK3" s="63">
+        <f t="shared" ref="DK3" si="93">DJ3+1</f>
         <v>43471</v>
       </c>
-      <c r="DG3" s="57">
-        <f t="shared" ref="DG3" si="94">DF3+1</f>
+      <c r="DL3" s="57">
+        <f t="shared" ref="DL3" si="94">DK3+1</f>
         <v>43472</v>
       </c>
-      <c r="DH3" s="57">
-        <f t="shared" ref="DH3" si="95">DG3+1</f>
+      <c r="DM3" s="57">
+        <f t="shared" ref="DM3" si="95">DL3+1</f>
         <v>43473</v>
       </c>
-      <c r="DI3" s="57">
-        <f t="shared" ref="DI3" si="96">DH3+1</f>
+      <c r="DN3" s="57">
+        <f t="shared" ref="DN3" si="96">DM3+1</f>
         <v>43474</v>
       </c>
-      <c r="DJ3" s="57">
-        <f t="shared" ref="DJ3" si="97">DI3+1</f>
+      <c r="DO3" s="57">
+        <f t="shared" ref="DO3" si="97">DN3+1</f>
         <v>43475</v>
       </c>
-      <c r="DK3" s="65">
-        <f t="shared" ref="DK3" si="98">DJ3+1</f>
+      <c r="DP3" s="65">
+        <f t="shared" ref="DP3" si="98">DO3+1</f>
         <v>43476</v>
       </c>
-      <c r="DL3" s="57"/>
-      <c r="DM3" s="57"/>
-      <c r="DN3" s="57"/>
-      <c r="DO3" s="57"/>
-      <c r="DP3" s="57"/>
       <c r="DQ3" s="57"/>
       <c r="DR3" s="57"/>
       <c r="DS3" s="57"/>
@@ -1993,137 +1999,142 @@
       <c r="EM3" s="57"/>
       <c r="EN3" s="57"/>
       <c r="EO3" s="57"/>
+      <c r="EP3" s="57"/>
+      <c r="EQ3" s="57"/>
+      <c r="ER3" s="57"/>
+      <c r="ES3" s="57"/>
+      <c r="ET3" s="57"/>
     </row>
-    <row r="4" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
       <c r="T4" s="60"/>
       <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
       <c r="AH4" s="60"/>
       <c r="AI4" s="60"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="60"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="70"/>
       <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
       <c r="AV4" s="60"/>
       <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
       <c r="BC4" s="60"/>
       <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
+      <c r="BE4" s="62"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
       <c r="BJ4" s="60"/>
       <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="68"/>
+      <c r="BL4" s="62"/>
+      <c r="BM4" s="64"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
       <c r="BQ4" s="60"/>
       <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="62"/>
-      <c r="BV4" s="64"/>
-      <c r="BW4" s="64"/>
+      <c r="BS4" s="62"/>
+      <c r="BT4" s="64"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
       <c r="BX4" s="60"/>
       <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="62"/>
-      <c r="CC4" s="64"/>
-      <c r="CD4" s="64"/>
+      <c r="BZ4" s="62"/>
+      <c r="CA4" s="64"/>
+      <c r="CB4" s="64"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="60"/>
       <c r="CE4" s="60"/>
       <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="62"/>
-      <c r="CJ4" s="64"/>
-      <c r="CK4" s="64"/>
+      <c r="CG4" s="62"/>
+      <c r="CH4" s="64"/>
+      <c r="CI4" s="64"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="60"/>
       <c r="CL4" s="60"/>
       <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="62"/>
-      <c r="CQ4" s="64"/>
-      <c r="CR4" s="64"/>
+      <c r="CN4" s="62"/>
+      <c r="CO4" s="64"/>
+      <c r="CP4" s="64"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
       <c r="CS4" s="60"/>
       <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="62"/>
-      <c r="CX4" s="64"/>
-      <c r="CY4" s="64"/>
+      <c r="CU4" s="62"/>
+      <c r="CV4" s="64"/>
+      <c r="CW4" s="64"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
       <c r="CZ4" s="60"/>
       <c r="DA4" s="60"/>
-      <c r="DB4" s="60"/>
-      <c r="DC4" s="60"/>
-      <c r="DD4" s="62"/>
-      <c r="DE4" s="64"/>
-      <c r="DF4" s="64"/>
+      <c r="DB4" s="62"/>
+      <c r="DC4" s="64"/>
+      <c r="DD4" s="64"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
       <c r="DG4" s="60"/>
       <c r="DH4" s="60"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="60"/>
-      <c r="DK4" s="66"/>
-      <c r="DL4" s="57"/>
-      <c r="DM4" s="57"/>
-      <c r="DN4" s="57"/>
-      <c r="DO4" s="57"/>
-      <c r="DP4" s="57"/>
+      <c r="DI4" s="62"/>
+      <c r="DJ4" s="64"/>
+      <c r="DK4" s="64"/>
+      <c r="DL4" s="60"/>
+      <c r="DM4" s="60"/>
+      <c r="DN4" s="60"/>
+      <c r="DO4" s="60"/>
+      <c r="DP4" s="66"/>
       <c r="DQ4" s="57"/>
       <c r="DR4" s="57"/>
       <c r="DS4" s="57"/>
@@ -2149,29 +2160,34 @@
       <c r="EM4" s="57"/>
       <c r="EN4" s="57"/>
       <c r="EO4" s="57"/>
+      <c r="EP4" s="57"/>
+      <c r="EQ4" s="57"/>
+      <c r="ER4" s="57"/>
+      <c r="ES4" s="57"/>
+      <c r="ET4" s="57"/>
     </row>
-    <row r="5" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
       <c r="U5" s="45"/>
       <c r="V5" s="45"/>
       <c r="W5" s="45"/>
@@ -2187,16 +2203,16 @@
       <c r="AG5" s="45"/>
       <c r="AH5" s="45"/>
       <c r="AI5" s="45"/>
-      <c r="AJ5" s="47"/>
+      <c r="AJ5" s="45"/>
       <c r="AK5" s="45"/>
       <c r="AL5" s="45"/>
       <c r="AM5" s="45"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="47"/>
       <c r="AP5" s="45"/>
       <c r="AQ5" s="45"/>
       <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
+      <c r="AS5" s="48"/>
       <c r="AT5" s="45"/>
       <c r="AU5" s="45"/>
       <c r="AV5" s="45"/>
@@ -2219,12 +2235,12 @@
       <c r="BM5" s="45"/>
       <c r="BN5" s="45"/>
       <c r="BO5" s="45"/>
-      <c r="BP5" s="48"/>
+      <c r="BP5" s="45"/>
       <c r="BQ5" s="45"/>
       <c r="BR5" s="45"/>
       <c r="BS5" s="45"/>
       <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
+      <c r="BU5" s="48"/>
       <c r="BV5" s="45"/>
       <c r="BW5" s="45"/>
       <c r="BX5" s="45"/>
@@ -2266,12 +2282,12 @@
       <c r="DH5" s="45"/>
       <c r="DI5" s="45"/>
       <c r="DJ5" s="45"/>
-      <c r="DK5" s="49"/>
-      <c r="DL5" s="30"/>
-      <c r="DM5" s="30"/>
-      <c r="DN5" s="30"/>
-      <c r="DO5" s="30"/>
-      <c r="DP5" s="30"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="49"/>
       <c r="DQ5" s="30"/>
       <c r="DR5" s="30"/>
       <c r="DS5" s="30"/>
@@ -2297,38 +2313,53 @@
       <c r="EM5" s="30"/>
       <c r="EN5" s="30"/>
       <c r="EO5" s="30"/>
+      <c r="EP5" s="30"/>
+      <c r="EQ5" s="30"/>
+      <c r="ER5" s="30"/>
+      <c r="ES5" s="30"/>
+      <c r="ET5" s="30"/>
     </row>
-    <row r="6" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B6" s="26">
         <v>1</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
         <v>7</v>
       </c>
-      <c r="E6" s="33">
+      <c r="J6" s="33">
         <v>43374</v>
       </c>
-      <c r="F6" s="33">
-        <f t="shared" ref="F6:F8" si="99">E6+D6</f>
+      <c r="K6" s="33">
+        <f t="shared" ref="K6:K8" si="99">J6+I6</f>
         <v>43381</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
       <c r="U6" s="45"/>
       <c r="V6" s="45"/>
       <c r="W6" s="45"/>
@@ -2344,16 +2375,16 @@
       <c r="AG6" s="45"/>
       <c r="AH6" s="45"/>
       <c r="AI6" s="45"/>
-      <c r="AJ6" s="47"/>
+      <c r="AJ6" s="45"/>
       <c r="AK6" s="45"/>
       <c r="AL6" s="45"/>
       <c r="AM6" s="45"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="47"/>
       <c r="AP6" s="45"/>
       <c r="AQ6" s="45"/>
       <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
+      <c r="AS6" s="48"/>
       <c r="AT6" s="45"/>
       <c r="AU6" s="45"/>
       <c r="AV6" s="45"/>
@@ -2376,12 +2407,12 @@
       <c r="BM6" s="45"/>
       <c r="BN6" s="45"/>
       <c r="BO6" s="45"/>
-      <c r="BP6" s="48"/>
+      <c r="BP6" s="45"/>
       <c r="BQ6" s="45"/>
       <c r="BR6" s="45"/>
       <c r="BS6" s="45"/>
       <c r="BT6" s="45"/>
-      <c r="BU6" s="45"/>
+      <c r="BU6" s="48"/>
       <c r="BV6" s="45"/>
       <c r="BW6" s="45"/>
       <c r="BX6" s="45"/>
@@ -2423,12 +2454,12 @@
       <c r="DH6" s="45"/>
       <c r="DI6" s="45"/>
       <c r="DJ6" s="45"/>
-      <c r="DK6" s="49"/>
-      <c r="DL6" s="30"/>
-      <c r="DM6" s="30"/>
-      <c r="DN6" s="30"/>
-      <c r="DO6" s="30"/>
-      <c r="DP6" s="30"/>
+      <c r="DK6" s="45"/>
+      <c r="DL6" s="45"/>
+      <c r="DM6" s="45"/>
+      <c r="DN6" s="45"/>
+      <c r="DO6" s="45"/>
+      <c r="DP6" s="49"/>
       <c r="DQ6" s="30"/>
       <c r="DR6" s="30"/>
       <c r="DS6" s="30"/>
@@ -2454,38 +2485,53 @@
       <c r="EM6" s="30"/>
       <c r="EN6" s="30"/>
       <c r="EO6" s="30"/>
+      <c r="EP6" s="30"/>
+      <c r="EQ6" s="30"/>
+      <c r="ER6" s="30"/>
+      <c r="ES6" s="30"/>
+      <c r="ET6" s="30"/>
     </row>
-    <row r="7" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <v>2</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="6">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>50</v>
+      </c>
+      <c r="I7" s="28">
         <v>7</v>
       </c>
-      <c r="E7" s="33">
+      <c r="J7" s="33">
         <v>43374</v>
       </c>
-      <c r="F7" s="33">
+      <c r="K7" s="33">
         <f t="shared" si="99"/>
         <v>43381</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="46"/>
       <c r="U7" s="45"/>
       <c r="V7" s="45"/>
       <c r="W7" s="45"/>
@@ -2501,16 +2547,16 @@
       <c r="AG7" s="45"/>
       <c r="AH7" s="45"/>
       <c r="AI7" s="45"/>
-      <c r="AJ7" s="47"/>
+      <c r="AJ7" s="45"/>
       <c r="AK7" s="45"/>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="47"/>
       <c r="AP7" s="45"/>
       <c r="AQ7" s="45"/>
       <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
+      <c r="AS7" s="48"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="45"/>
       <c r="AV7" s="45"/>
@@ -2533,12 +2579,12 @@
       <c r="BM7" s="45"/>
       <c r="BN7" s="45"/>
       <c r="BO7" s="45"/>
-      <c r="BP7" s="48"/>
+      <c r="BP7" s="45"/>
       <c r="BQ7" s="45"/>
       <c r="BR7" s="45"/>
       <c r="BS7" s="45"/>
       <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
+      <c r="BU7" s="48"/>
       <c r="BV7" s="45"/>
       <c r="BW7" s="45"/>
       <c r="BX7" s="45"/>
@@ -2580,12 +2626,12 @@
       <c r="DH7" s="45"/>
       <c r="DI7" s="45"/>
       <c r="DJ7" s="45"/>
-      <c r="DK7" s="49"/>
-      <c r="DL7" s="30"/>
-      <c r="DM7" s="30"/>
-      <c r="DN7" s="30"/>
-      <c r="DO7" s="30"/>
-      <c r="DP7" s="30"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="45"/>
+      <c r="DP7" s="49"/>
       <c r="DQ7" s="30"/>
       <c r="DR7" s="30"/>
       <c r="DS7" s="30"/>
@@ -2611,38 +2657,53 @@
       <c r="EM7" s="30"/>
       <c r="EN7" s="30"/>
       <c r="EO7" s="30"/>
+      <c r="EP7" s="30"/>
+      <c r="EQ7" s="30"/>
+      <c r="ER7" s="30"/>
+      <c r="ES7" s="30"/>
+      <c r="ET7" s="30"/>
     </row>
-    <row r="8" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B8" s="26">
         <v>3</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="6">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>50</v>
+      </c>
+      <c r="I8" s="28">
         <v>7</v>
       </c>
-      <c r="E8" s="33">
+      <c r="J8" s="33">
         <v>43374</v>
       </c>
-      <c r="F8" s="33">
+      <c r="K8" s="33">
         <f t="shared" si="99"/>
         <v>43381</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="46"/>
       <c r="U8" s="45"/>
       <c r="V8" s="45"/>
       <c r="W8" s="45"/>
@@ -2658,16 +2719,16 @@
       <c r="AG8" s="45"/>
       <c r="AH8" s="45"/>
       <c r="AI8" s="45"/>
-      <c r="AJ8" s="47"/>
+      <c r="AJ8" s="45"/>
       <c r="AK8" s="45"/>
       <c r="AL8" s="45"/>
       <c r="AM8" s="45"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="47"/>
       <c r="AP8" s="45"/>
       <c r="AQ8" s="45"/>
       <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AS8" s="48"/>
       <c r="AT8" s="45"/>
       <c r="AU8" s="45"/>
       <c r="AV8" s="45"/>
@@ -2690,12 +2751,12 @@
       <c r="BM8" s="45"/>
       <c r="BN8" s="45"/>
       <c r="BO8" s="45"/>
-      <c r="BP8" s="48"/>
+      <c r="BP8" s="45"/>
       <c r="BQ8" s="45"/>
       <c r="BR8" s="45"/>
       <c r="BS8" s="45"/>
       <c r="BT8" s="45"/>
-      <c r="BU8" s="45"/>
+      <c r="BU8" s="48"/>
       <c r="BV8" s="45"/>
       <c r="BW8" s="45"/>
       <c r="BX8" s="45"/>
@@ -2737,12 +2798,12 @@
       <c r="DH8" s="45"/>
       <c r="DI8" s="45"/>
       <c r="DJ8" s="45"/>
-      <c r="DK8" s="49"/>
-      <c r="DL8" s="30"/>
-      <c r="DM8" s="30"/>
-      <c r="DN8" s="30"/>
-      <c r="DO8" s="30"/>
-      <c r="DP8" s="30"/>
+      <c r="DK8" s="45"/>
+      <c r="DL8" s="45"/>
+      <c r="DM8" s="45"/>
+      <c r="DN8" s="45"/>
+      <c r="DO8" s="45"/>
+      <c r="DP8" s="49"/>
       <c r="DQ8" s="30"/>
       <c r="DR8" s="30"/>
       <c r="DS8" s="30"/>
@@ -2768,31 +2829,36 @@
       <c r="EM8" s="30"/>
       <c r="EN8" s="30"/>
       <c r="EO8" s="30"/>
+      <c r="EP8" s="30"/>
+      <c r="EQ8" s="30"/>
+      <c r="ER8" s="30"/>
+      <c r="ES8" s="30"/>
+      <c r="ET8" s="30"/>
     </row>
-    <row r="9" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B9" s="34">
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="46"/>
       <c r="U9" s="45"/>
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
@@ -2808,16 +2874,16 @@
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="45"/>
-      <c r="AJ9" s="47"/>
+      <c r="AJ9" s="45"/>
       <c r="AK9" s="45"/>
       <c r="AL9" s="45"/>
       <c r="AM9" s="45"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="47"/>
       <c r="AP9" s="45"/>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
+      <c r="AS9" s="48"/>
       <c r="AT9" s="45"/>
       <c r="AU9" s="45"/>
       <c r="AV9" s="45"/>
@@ -2840,12 +2906,12 @@
       <c r="BM9" s="45"/>
       <c r="BN9" s="45"/>
       <c r="BO9" s="45"/>
-      <c r="BP9" s="48"/>
+      <c r="BP9" s="45"/>
       <c r="BQ9" s="45"/>
       <c r="BR9" s="45"/>
       <c r="BS9" s="45"/>
       <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
+      <c r="BU9" s="48"/>
       <c r="BV9" s="45"/>
       <c r="BW9" s="45"/>
       <c r="BX9" s="45"/>
@@ -2887,12 +2953,12 @@
       <c r="DH9" s="45"/>
       <c r="DI9" s="45"/>
       <c r="DJ9" s="45"/>
-      <c r="DK9" s="49"/>
-      <c r="DL9" s="30"/>
-      <c r="DM9" s="30"/>
-      <c r="DN9" s="30"/>
-      <c r="DO9" s="30"/>
-      <c r="DP9" s="30"/>
+      <c r="DK9" s="45"/>
+      <c r="DL9" s="45"/>
+      <c r="DM9" s="45"/>
+      <c r="DN9" s="45"/>
+      <c r="DO9" s="45"/>
+      <c r="DP9" s="49"/>
       <c r="DQ9" s="30"/>
       <c r="DR9" s="30"/>
       <c r="DS9" s="30"/>
@@ -2918,38 +2984,53 @@
       <c r="EM9" s="30"/>
       <c r="EN9" s="30"/>
       <c r="EO9" s="30"/>
+      <c r="EP9" s="30"/>
+      <c r="EQ9" s="30"/>
+      <c r="ER9" s="30"/>
+      <c r="ES9" s="30"/>
+      <c r="ET9" s="30"/>
     </row>
-    <row r="10" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
         <v>14</v>
       </c>
-      <c r="E10" s="33">
+      <c r="J10" s="33">
         <v>43379</v>
       </c>
-      <c r="F10" s="33">
-        <f t="shared" ref="F10:F31" si="100">E10+D10</f>
+      <c r="K10" s="33">
+        <f t="shared" ref="K10:K31" si="100">J10+I10</f>
         <v>43393</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="46"/>
       <c r="U10" s="45"/>
       <c r="V10" s="45"/>
       <c r="W10" s="45"/>
@@ -2965,16 +3046,16 @@
       <c r="AG10" s="45"/>
       <c r="AH10" s="45"/>
       <c r="AI10" s="45"/>
-      <c r="AJ10" s="47"/>
+      <c r="AJ10" s="45"/>
       <c r="AK10" s="45"/>
       <c r="AL10" s="45"/>
       <c r="AM10" s="45"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="47"/>
       <c r="AP10" s="45"/>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
+      <c r="AS10" s="48"/>
       <c r="AT10" s="45"/>
       <c r="AU10" s="45"/>
       <c r="AV10" s="45"/>
@@ -2997,12 +3078,12 @@
       <c r="BM10" s="45"/>
       <c r="BN10" s="45"/>
       <c r="BO10" s="45"/>
-      <c r="BP10" s="48"/>
+      <c r="BP10" s="45"/>
       <c r="BQ10" s="45"/>
       <c r="BR10" s="45"/>
       <c r="BS10" s="45"/>
       <c r="BT10" s="45"/>
-      <c r="BU10" s="45"/>
+      <c r="BU10" s="48"/>
       <c r="BV10" s="45"/>
       <c r="BW10" s="45"/>
       <c r="BX10" s="45"/>
@@ -3044,12 +3125,12 @@
       <c r="DH10" s="45"/>
       <c r="DI10" s="45"/>
       <c r="DJ10" s="45"/>
-      <c r="DK10" s="49"/>
-      <c r="DL10" s="30"/>
-      <c r="DM10" s="30"/>
-      <c r="DN10" s="30"/>
-      <c r="DO10" s="30"/>
-      <c r="DP10" s="30"/>
+      <c r="DK10" s="45"/>
+      <c r="DL10" s="45"/>
+      <c r="DM10" s="45"/>
+      <c r="DN10" s="45"/>
+      <c r="DO10" s="45"/>
+      <c r="DP10" s="49"/>
       <c r="DQ10" s="30"/>
       <c r="DR10" s="30"/>
       <c r="DS10" s="30"/>
@@ -3075,38 +3156,53 @@
       <c r="EM10" s="30"/>
       <c r="EN10" s="30"/>
       <c r="EO10" s="30"/>
+      <c r="EP10" s="30"/>
+      <c r="EQ10" s="30"/>
+      <c r="ER10" s="30"/>
+      <c r="ES10" s="30"/>
+      <c r="ET10" s="30"/>
     </row>
-    <row r="11" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="6">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>50</v>
+      </c>
+      <c r="I11" s="28">
         <v>3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="J11" s="33">
         <v>43390</v>
       </c>
-      <c r="F11" s="33">
+      <c r="K11" s="33">
         <f t="shared" si="100"/>
         <v>43393</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="46"/>
       <c r="U11" s="45"/>
       <c r="V11" s="45"/>
       <c r="W11" s="45"/>
@@ -3122,16 +3218,16 @@
       <c r="AG11" s="45"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="45"/>
-      <c r="AJ11" s="47"/>
+      <c r="AJ11" s="45"/>
       <c r="AK11" s="45"/>
       <c r="AL11" s="45"/>
       <c r="AM11" s="45"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="47"/>
       <c r="AP11" s="45"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
+      <c r="AS11" s="48"/>
       <c r="AT11" s="45"/>
       <c r="AU11" s="45"/>
       <c r="AV11" s="45"/>
@@ -3154,12 +3250,12 @@
       <c r="BM11" s="45"/>
       <c r="BN11" s="45"/>
       <c r="BO11" s="45"/>
-      <c r="BP11" s="48"/>
+      <c r="BP11" s="45"/>
       <c r="BQ11" s="45"/>
       <c r="BR11" s="45"/>
       <c r="BS11" s="45"/>
       <c r="BT11" s="45"/>
-      <c r="BU11" s="45"/>
+      <c r="BU11" s="48"/>
       <c r="BV11" s="45"/>
       <c r="BW11" s="45"/>
       <c r="BX11" s="45"/>
@@ -3201,12 +3297,12 @@
       <c r="DH11" s="45"/>
       <c r="DI11" s="45"/>
       <c r="DJ11" s="45"/>
-      <c r="DK11" s="49"/>
-      <c r="DL11" s="30"/>
-      <c r="DM11" s="30"/>
-      <c r="DN11" s="30"/>
-      <c r="DO11" s="30"/>
-      <c r="DP11" s="30"/>
+      <c r="DK11" s="45"/>
+      <c r="DL11" s="45"/>
+      <c r="DM11" s="45"/>
+      <c r="DN11" s="45"/>
+      <c r="DO11" s="45"/>
+      <c r="DP11" s="49"/>
       <c r="DQ11" s="30"/>
       <c r="DR11" s="30"/>
       <c r="DS11" s="30"/>
@@ -3232,38 +3328,53 @@
       <c r="EM11" s="30"/>
       <c r="EN11" s="30"/>
       <c r="EO11" s="30"/>
+      <c r="EP11" s="30"/>
+      <c r="EQ11" s="30"/>
+      <c r="ER11" s="30"/>
+      <c r="ES11" s="30"/>
+      <c r="ET11" s="30"/>
     </row>
-    <row r="12" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
         <v>5</v>
       </c>
-      <c r="E12" s="33">
+      <c r="J12" s="33">
         <v>43394</v>
       </c>
-      <c r="F12" s="33">
+      <c r="K12" s="33">
         <f t="shared" si="100"/>
         <v>43399</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="46"/>
       <c r="U12" s="45"/>
       <c r="V12" s="45"/>
       <c r="W12" s="45"/>
@@ -3279,16 +3390,16 @@
       <c r="AG12" s="45"/>
       <c r="AH12" s="45"/>
       <c r="AI12" s="45"/>
-      <c r="AJ12" s="47"/>
+      <c r="AJ12" s="45"/>
       <c r="AK12" s="45"/>
       <c r="AL12" s="45"/>
       <c r="AM12" s="45"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="47"/>
       <c r="AP12" s="45"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
+      <c r="AS12" s="48"/>
       <c r="AT12" s="45"/>
       <c r="AU12" s="45"/>
       <c r="AV12" s="45"/>
@@ -3311,12 +3422,12 @@
       <c r="BM12" s="45"/>
       <c r="BN12" s="45"/>
       <c r="BO12" s="45"/>
-      <c r="BP12" s="48"/>
+      <c r="BP12" s="45"/>
       <c r="BQ12" s="45"/>
       <c r="BR12" s="45"/>
       <c r="BS12" s="45"/>
       <c r="BT12" s="45"/>
-      <c r="BU12" s="45"/>
+      <c r="BU12" s="48"/>
       <c r="BV12" s="45"/>
       <c r="BW12" s="45"/>
       <c r="BX12" s="45"/>
@@ -3358,12 +3469,12 @@
       <c r="DH12" s="45"/>
       <c r="DI12" s="45"/>
       <c r="DJ12" s="45"/>
-      <c r="DK12" s="49"/>
-      <c r="DL12" s="30"/>
-      <c r="DM12" s="30"/>
-      <c r="DN12" s="30"/>
-      <c r="DO12" s="30"/>
-      <c r="DP12" s="30"/>
+      <c r="DK12" s="45"/>
+      <c r="DL12" s="45"/>
+      <c r="DM12" s="45"/>
+      <c r="DN12" s="45"/>
+      <c r="DO12" s="45"/>
+      <c r="DP12" s="49"/>
       <c r="DQ12" s="30"/>
       <c r="DR12" s="30"/>
       <c r="DS12" s="30"/>
@@ -3389,38 +3500,53 @@
       <c r="EM12" s="30"/>
       <c r="EN12" s="30"/>
       <c r="EO12" s="30"/>
+      <c r="EP12" s="30"/>
+      <c r="EQ12" s="30"/>
+      <c r="ER12" s="30"/>
+      <c r="ES12" s="30"/>
+      <c r="ET12" s="30"/>
     </row>
-    <row r="13" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="6">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>50</v>
+      </c>
+      <c r="I13" s="37">
         <v>5</v>
       </c>
-      <c r="E13" s="33">
+      <c r="J13" s="33">
         <v>43394</v>
       </c>
-      <c r="F13" s="33">
-        <f t="shared" ref="F13" si="101">E13+D13</f>
+      <c r="K13" s="33">
+        <f t="shared" ref="K13" si="101">J13+I13</f>
         <v>43399</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="46"/>
       <c r="U13" s="45"/>
       <c r="V13" s="45"/>
       <c r="W13" s="45"/>
@@ -3436,16 +3562,16 @@
       <c r="AG13" s="45"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="45"/>
-      <c r="AJ13" s="47"/>
+      <c r="AJ13" s="45"/>
       <c r="AK13" s="45"/>
       <c r="AL13" s="45"/>
       <c r="AM13" s="45"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="47"/>
       <c r="AP13" s="45"/>
       <c r="AQ13" s="45"/>
       <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
+      <c r="AS13" s="48"/>
       <c r="AT13" s="45"/>
       <c r="AU13" s="45"/>
       <c r="AV13" s="45"/>
@@ -3468,12 +3594,12 @@
       <c r="BM13" s="45"/>
       <c r="BN13" s="45"/>
       <c r="BO13" s="45"/>
-      <c r="BP13" s="48"/>
+      <c r="BP13" s="45"/>
       <c r="BQ13" s="45"/>
       <c r="BR13" s="45"/>
       <c r="BS13" s="45"/>
       <c r="BT13" s="45"/>
-      <c r="BU13" s="45"/>
+      <c r="BU13" s="48"/>
       <c r="BV13" s="45"/>
       <c r="BW13" s="45"/>
       <c r="BX13" s="45"/>
@@ -3515,12 +3641,12 @@
       <c r="DH13" s="45"/>
       <c r="DI13" s="45"/>
       <c r="DJ13" s="45"/>
-      <c r="DK13" s="49"/>
-      <c r="DL13" s="30"/>
-      <c r="DM13" s="30"/>
-      <c r="DN13" s="30"/>
-      <c r="DO13" s="30"/>
-      <c r="DP13" s="30"/>
+      <c r="DK13" s="45"/>
+      <c r="DL13" s="45"/>
+      <c r="DM13" s="45"/>
+      <c r="DN13" s="45"/>
+      <c r="DO13" s="45"/>
+      <c r="DP13" s="49"/>
       <c r="DQ13" s="30"/>
       <c r="DR13" s="30"/>
       <c r="DS13" s="30"/>
@@ -3546,38 +3672,53 @@
       <c r="EM13" s="30"/>
       <c r="EN13" s="30"/>
       <c r="EO13" s="30"/>
+      <c r="EP13" s="30"/>
+      <c r="EQ13" s="30"/>
+      <c r="ER13" s="30"/>
+      <c r="ES13" s="30"/>
+      <c r="ET13" s="30"/>
     </row>
-    <row r="14" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
         <v>5</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6">
+        <v>20</v>
+      </c>
+      <c r="I14" s="37">
         <v>2</v>
       </c>
-      <c r="E14" s="33">
+      <c r="J14" s="33">
         <v>43399</v>
       </c>
-      <c r="F14" s="33">
+      <c r="K14" s="33">
         <f t="shared" si="100"/>
         <v>43401</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="46"/>
       <c r="U14" s="45"/>
       <c r="V14" s="45"/>
       <c r="W14" s="45"/>
@@ -3593,16 +3734,16 @@
       <c r="AG14" s="45"/>
       <c r="AH14" s="45"/>
       <c r="AI14" s="45"/>
-      <c r="AJ14" s="47"/>
+      <c r="AJ14" s="45"/>
       <c r="AK14" s="45"/>
       <c r="AL14" s="45"/>
       <c r="AM14" s="45"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="47"/>
       <c r="AP14" s="45"/>
       <c r="AQ14" s="45"/>
       <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
+      <c r="AS14" s="48"/>
       <c r="AT14" s="45"/>
       <c r="AU14" s="45"/>
       <c r="AV14" s="45"/>
@@ -3625,12 +3766,12 @@
       <c r="BM14" s="45"/>
       <c r="BN14" s="45"/>
       <c r="BO14" s="45"/>
-      <c r="BP14" s="48"/>
+      <c r="BP14" s="45"/>
       <c r="BQ14" s="45"/>
       <c r="BR14" s="45"/>
       <c r="BS14" s="45"/>
       <c r="BT14" s="45"/>
-      <c r="BU14" s="45"/>
+      <c r="BU14" s="48"/>
       <c r="BV14" s="45"/>
       <c r="BW14" s="45"/>
       <c r="BX14" s="45"/>
@@ -3672,12 +3813,12 @@
       <c r="DH14" s="45"/>
       <c r="DI14" s="45"/>
       <c r="DJ14" s="45"/>
-      <c r="DK14" s="49"/>
-      <c r="DL14" s="30"/>
-      <c r="DM14" s="30"/>
-      <c r="DN14" s="30"/>
-      <c r="DO14" s="30"/>
-      <c r="DP14" s="30"/>
+      <c r="DK14" s="45"/>
+      <c r="DL14" s="45"/>
+      <c r="DM14" s="45"/>
+      <c r="DN14" s="45"/>
+      <c r="DO14" s="45"/>
+      <c r="DP14" s="49"/>
       <c r="DQ14" s="30"/>
       <c r="DR14" s="30"/>
       <c r="DS14" s="30"/>
@@ -3703,36 +3844,51 @@
       <c r="EM14" s="30"/>
       <c r="EN14" s="30"/>
       <c r="EO14" s="30"/>
+      <c r="EP14" s="30"/>
+      <c r="EQ14" s="30"/>
+      <c r="ER14" s="30"/>
+      <c r="ES14" s="30"/>
+      <c r="ET14" s="30"/>
     </row>
-    <row r="15" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="6">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6">
+        <v>20</v>
+      </c>
+      <c r="I15" s="28">
         <v>0</v>
       </c>
-      <c r="E15" s="33">
+      <c r="J15" s="33">
         <v>43401</v>
       </c>
-      <c r="F15" s="33">
+      <c r="K15" s="33">
         <f t="shared" si="100"/>
         <v>43401</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="46"/>
       <c r="U15" s="45"/>
       <c r="V15" s="45"/>
       <c r="W15" s="45"/>
@@ -3748,16 +3904,16 @@
       <c r="AG15" s="45"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="45"/>
-      <c r="AJ15" s="47"/>
+      <c r="AJ15" s="45"/>
       <c r="AK15" s="45"/>
       <c r="AL15" s="45"/>
       <c r="AM15" s="45"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="47"/>
       <c r="AP15" s="45"/>
       <c r="AQ15" s="45"/>
       <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
+      <c r="AS15" s="48"/>
       <c r="AT15" s="45"/>
       <c r="AU15" s="45"/>
       <c r="AV15" s="45"/>
@@ -3780,12 +3936,12 @@
       <c r="BM15" s="45"/>
       <c r="BN15" s="45"/>
       <c r="BO15" s="45"/>
-      <c r="BP15" s="48"/>
+      <c r="BP15" s="45"/>
       <c r="BQ15" s="45"/>
       <c r="BR15" s="45"/>
       <c r="BS15" s="45"/>
       <c r="BT15" s="45"/>
-      <c r="BU15" s="45"/>
+      <c r="BU15" s="48"/>
       <c r="BV15" s="45"/>
       <c r="BW15" s="45"/>
       <c r="BX15" s="45"/>
@@ -3827,12 +3983,12 @@
       <c r="DH15" s="45"/>
       <c r="DI15" s="45"/>
       <c r="DJ15" s="45"/>
-      <c r="DK15" s="49"/>
-      <c r="DL15" s="30"/>
-      <c r="DM15" s="30"/>
-      <c r="DN15" s="30"/>
-      <c r="DO15" s="30"/>
-      <c r="DP15" s="30"/>
+      <c r="DK15" s="45"/>
+      <c r="DL15" s="45"/>
+      <c r="DM15" s="45"/>
+      <c r="DN15" s="45"/>
+      <c r="DO15" s="45"/>
+      <c r="DP15" s="49"/>
       <c r="DQ15" s="30"/>
       <c r="DR15" s="30"/>
       <c r="DS15" s="30"/>
@@ -3858,29 +4014,34 @@
       <c r="EM15" s="30"/>
       <c r="EN15" s="30"/>
       <c r="EO15" s="30"/>
+      <c r="EP15" s="30"/>
+      <c r="EQ15" s="30"/>
+      <c r="ER15" s="30"/>
+      <c r="ES15" s="30"/>
+      <c r="ET15" s="30"/>
     </row>
-    <row r="16" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="46"/>
       <c r="U16" s="45"/>
       <c r="V16" s="45"/>
       <c r="W16" s="45"/>
@@ -3896,16 +4057,16 @@
       <c r="AG16" s="45"/>
       <c r="AH16" s="45"/>
       <c r="AI16" s="45"/>
-      <c r="AJ16" s="47"/>
+      <c r="AJ16" s="45"/>
       <c r="AK16" s="45"/>
       <c r="AL16" s="45"/>
       <c r="AM16" s="45"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="47"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="45"/>
       <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
+      <c r="AS16" s="48"/>
       <c r="AT16" s="45"/>
       <c r="AU16" s="45"/>
       <c r="AV16" s="45"/>
@@ -3928,12 +4089,12 @@
       <c r="BM16" s="45"/>
       <c r="BN16" s="45"/>
       <c r="BO16" s="45"/>
-      <c r="BP16" s="48"/>
+      <c r="BP16" s="45"/>
       <c r="BQ16" s="45"/>
       <c r="BR16" s="45"/>
       <c r="BS16" s="45"/>
       <c r="BT16" s="45"/>
-      <c r="BU16" s="45"/>
+      <c r="BU16" s="48"/>
       <c r="BV16" s="45"/>
       <c r="BW16" s="45"/>
       <c r="BX16" s="45"/>
@@ -3975,12 +4136,12 @@
       <c r="DH16" s="45"/>
       <c r="DI16" s="45"/>
       <c r="DJ16" s="45"/>
-      <c r="DK16" s="49"/>
-      <c r="DL16" s="30"/>
-      <c r="DM16" s="30"/>
-      <c r="DN16" s="30"/>
-      <c r="DO16" s="30"/>
-      <c r="DP16" s="30"/>
+      <c r="DK16" s="45"/>
+      <c r="DL16" s="45"/>
+      <c r="DM16" s="45"/>
+      <c r="DN16" s="45"/>
+      <c r="DO16" s="45"/>
+      <c r="DP16" s="49"/>
       <c r="DQ16" s="30"/>
       <c r="DR16" s="30"/>
       <c r="DS16" s="30"/>
@@ -4006,31 +4167,36 @@
       <c r="EM16" s="30"/>
       <c r="EN16" s="30"/>
       <c r="EO16" s="30"/>
+      <c r="EP16" s="30"/>
+      <c r="EQ16" s="30"/>
+      <c r="ER16" s="30"/>
+      <c r="ES16" s="30"/>
+      <c r="ET16" s="30"/>
     </row>
-    <row r="17" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <v>6</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="46"/>
       <c r="U17" s="45"/>
       <c r="V17" s="45"/>
       <c r="W17" s="45"/>
@@ -4046,16 +4212,16 @@
       <c r="AG17" s="45"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="45"/>
-      <c r="AJ17" s="47"/>
+      <c r="AJ17" s="45"/>
       <c r="AK17" s="45"/>
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="47"/>
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45"/>
       <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
+      <c r="AS17" s="48"/>
       <c r="AT17" s="45"/>
       <c r="AU17" s="45"/>
       <c r="AV17" s="45"/>
@@ -4078,12 +4244,12 @@
       <c r="BM17" s="45"/>
       <c r="BN17" s="45"/>
       <c r="BO17" s="45"/>
-      <c r="BP17" s="48"/>
+      <c r="BP17" s="45"/>
       <c r="BQ17" s="45"/>
       <c r="BR17" s="45"/>
       <c r="BS17" s="45"/>
       <c r="BT17" s="45"/>
-      <c r="BU17" s="45"/>
+      <c r="BU17" s="48"/>
       <c r="BV17" s="45"/>
       <c r="BW17" s="45"/>
       <c r="BX17" s="45"/>
@@ -4125,12 +4291,12 @@
       <c r="DH17" s="45"/>
       <c r="DI17" s="45"/>
       <c r="DJ17" s="45"/>
-      <c r="DK17" s="49"/>
-      <c r="DL17" s="30"/>
-      <c r="DM17" s="30"/>
-      <c r="DN17" s="30"/>
-      <c r="DO17" s="30"/>
-      <c r="DP17" s="30"/>
+      <c r="DK17" s="45"/>
+      <c r="DL17" s="45"/>
+      <c r="DM17" s="45"/>
+      <c r="DN17" s="45"/>
+      <c r="DO17" s="45"/>
+      <c r="DP17" s="49"/>
       <c r="DQ17" s="30"/>
       <c r="DR17" s="30"/>
       <c r="DS17" s="30"/>
@@ -4156,38 +4322,53 @@
       <c r="EM17" s="30"/>
       <c r="EN17" s="30"/>
       <c r="EO17" s="30"/>
+      <c r="EP17" s="30"/>
+      <c r="EQ17" s="30"/>
+      <c r="ER17" s="30"/>
+      <c r="ES17" s="30"/>
+      <c r="ET17" s="30"/>
     </row>
-    <row r="18" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="7">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>50</v>
+      </c>
+      <c r="I18" s="28">
         <v>7</v>
       </c>
-      <c r="E18" s="33">
+      <c r="J18" s="33">
         <v>43402</v>
       </c>
-      <c r="F18" s="33">
+      <c r="K18" s="33">
         <f t="shared" si="100"/>
         <v>43409</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="46"/>
       <c r="U18" s="45"/>
       <c r="V18" s="45"/>
       <c r="W18" s="45"/>
@@ -4203,16 +4384,16 @@
       <c r="AG18" s="45"/>
       <c r="AH18" s="45"/>
       <c r="AI18" s="45"/>
-      <c r="AJ18" s="47"/>
+      <c r="AJ18" s="45"/>
       <c r="AK18" s="45"/>
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="47"/>
       <c r="AP18" s="45"/>
       <c r="AQ18" s="45"/>
       <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
+      <c r="AS18" s="48"/>
       <c r="AT18" s="45"/>
       <c r="AU18" s="45"/>
       <c r="AV18" s="45"/>
@@ -4235,12 +4416,12 @@
       <c r="BM18" s="45"/>
       <c r="BN18" s="45"/>
       <c r="BO18" s="45"/>
-      <c r="BP18" s="48"/>
+      <c r="BP18" s="45"/>
       <c r="BQ18" s="45"/>
       <c r="BR18" s="45"/>
       <c r="BS18" s="45"/>
       <c r="BT18" s="45"/>
-      <c r="BU18" s="45"/>
+      <c r="BU18" s="48"/>
       <c r="BV18" s="45"/>
       <c r="BW18" s="45"/>
       <c r="BX18" s="45"/>
@@ -4282,12 +4463,12 @@
       <c r="DH18" s="45"/>
       <c r="DI18" s="45"/>
       <c r="DJ18" s="45"/>
-      <c r="DK18" s="49"/>
-      <c r="DL18" s="30"/>
-      <c r="DM18" s="30"/>
-      <c r="DN18" s="30"/>
-      <c r="DO18" s="30"/>
-      <c r="DP18" s="30"/>
+      <c r="DK18" s="45"/>
+      <c r="DL18" s="45"/>
+      <c r="DM18" s="45"/>
+      <c r="DN18" s="45"/>
+      <c r="DO18" s="45"/>
+      <c r="DP18" s="49"/>
       <c r="DQ18" s="30"/>
       <c r="DR18" s="30"/>
       <c r="DS18" s="30"/>
@@ -4313,38 +4494,53 @@
       <c r="EM18" s="30"/>
       <c r="EN18" s="30"/>
       <c r="EO18" s="30"/>
+      <c r="EP18" s="30"/>
+      <c r="EQ18" s="30"/>
+      <c r="ER18" s="30"/>
+      <c r="ES18" s="30"/>
+      <c r="ET18" s="30"/>
     </row>
-    <row r="19" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="7">
+        <v>50</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>50</v>
+      </c>
+      <c r="I19" s="28">
         <v>14</v>
       </c>
-      <c r="E19" s="33">
+      <c r="J19" s="33">
         <v>43402</v>
       </c>
-      <c r="F19" s="33">
+      <c r="K19" s="33">
         <f t="shared" si="100"/>
         <v>43416</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="46"/>
       <c r="U19" s="45"/>
       <c r="V19" s="45"/>
       <c r="W19" s="45"/>
@@ -4360,16 +4556,16 @@
       <c r="AG19" s="45"/>
       <c r="AH19" s="45"/>
       <c r="AI19" s="45"/>
-      <c r="AJ19" s="47"/>
+      <c r="AJ19" s="45"/>
       <c r="AK19" s="45"/>
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="47"/>
       <c r="AP19" s="45"/>
       <c r="AQ19" s="45"/>
       <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AS19" s="48"/>
       <c r="AT19" s="45"/>
       <c r="AU19" s="45"/>
       <c r="AV19" s="45"/>
@@ -4392,12 +4588,12 @@
       <c r="BM19" s="45"/>
       <c r="BN19" s="45"/>
       <c r="BO19" s="45"/>
-      <c r="BP19" s="48"/>
+      <c r="BP19" s="45"/>
       <c r="BQ19" s="45"/>
       <c r="BR19" s="45"/>
       <c r="BS19" s="45"/>
       <c r="BT19" s="45"/>
-      <c r="BU19" s="45"/>
+      <c r="BU19" s="48"/>
       <c r="BV19" s="45"/>
       <c r="BW19" s="45"/>
       <c r="BX19" s="45"/>
@@ -4439,12 +4635,12 @@
       <c r="DH19" s="45"/>
       <c r="DI19" s="45"/>
       <c r="DJ19" s="45"/>
-      <c r="DK19" s="49"/>
-      <c r="DL19" s="30"/>
-      <c r="DM19" s="30"/>
-      <c r="DN19" s="30"/>
-      <c r="DO19" s="30"/>
-      <c r="DP19" s="30"/>
+      <c r="DK19" s="45"/>
+      <c r="DL19" s="45"/>
+      <c r="DM19" s="45"/>
+      <c r="DN19" s="45"/>
+      <c r="DO19" s="45"/>
+      <c r="DP19" s="49"/>
       <c r="DQ19" s="30"/>
       <c r="DR19" s="30"/>
       <c r="DS19" s="30"/>
@@ -4470,31 +4666,36 @@
       <c r="EM19" s="30"/>
       <c r="EN19" s="30"/>
       <c r="EO19" s="30"/>
+      <c r="EP19" s="30"/>
+      <c r="EQ19" s="30"/>
+      <c r="ER19" s="30"/>
+      <c r="ES19" s="30"/>
+      <c r="ET19" s="30"/>
     </row>
-    <row r="20" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B20" s="34">
         <v>7</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="46"/>
       <c r="U20" s="45"/>
       <c r="V20" s="45"/>
       <c r="W20" s="45"/>
@@ -4510,16 +4711,16 @@
       <c r="AG20" s="45"/>
       <c r="AH20" s="45"/>
       <c r="AI20" s="45"/>
-      <c r="AJ20" s="47"/>
+      <c r="AJ20" s="45"/>
       <c r="AK20" s="45"/>
       <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="47"/>
       <c r="AP20" s="45"/>
       <c r="AQ20" s="45"/>
       <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
+      <c r="AS20" s="48"/>
       <c r="AT20" s="45"/>
       <c r="AU20" s="45"/>
       <c r="AV20" s="45"/>
@@ -4542,12 +4743,12 @@
       <c r="BM20" s="45"/>
       <c r="BN20" s="45"/>
       <c r="BO20" s="45"/>
-      <c r="BP20" s="48"/>
+      <c r="BP20" s="45"/>
       <c r="BQ20" s="45"/>
       <c r="BR20" s="45"/>
       <c r="BS20" s="45"/>
       <c r="BT20" s="45"/>
-      <c r="BU20" s="45"/>
+      <c r="BU20" s="48"/>
       <c r="BV20" s="45"/>
       <c r="BW20" s="45"/>
       <c r="BX20" s="45"/>
@@ -4589,12 +4790,12 @@
       <c r="DH20" s="45"/>
       <c r="DI20" s="45"/>
       <c r="DJ20" s="45"/>
-      <c r="DK20" s="49"/>
-      <c r="DL20" s="30"/>
-      <c r="DM20" s="30"/>
-      <c r="DN20" s="30"/>
-      <c r="DO20" s="30"/>
-      <c r="DP20" s="30"/>
+      <c r="DK20" s="45"/>
+      <c r="DL20" s="45"/>
+      <c r="DM20" s="45"/>
+      <c r="DN20" s="45"/>
+      <c r="DO20" s="45"/>
+      <c r="DP20" s="49"/>
       <c r="DQ20" s="30"/>
       <c r="DR20" s="30"/>
       <c r="DS20" s="30"/>
@@ -4620,38 +4821,53 @@
       <c r="EM20" s="30"/>
       <c r="EN20" s="30"/>
       <c r="EO20" s="30"/>
+      <c r="EP20" s="30"/>
+      <c r="EQ20" s="30"/>
+      <c r="ER20" s="30"/>
+      <c r="ES20" s="30"/>
+      <c r="ET20" s="30"/>
     </row>
-    <row r="21" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="7">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <v>20</v>
+      </c>
+      <c r="I21" s="28">
         <v>30</v>
       </c>
-      <c r="E21" s="33">
+      <c r="J21" s="33">
         <v>43402</v>
       </c>
-      <c r="F21" s="33">
+      <c r="K21" s="33">
         <f t="shared" si="100"/>
         <v>43432</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="46"/>
       <c r="U21" s="45"/>
       <c r="V21" s="45"/>
       <c r="W21" s="45"/>
@@ -4667,16 +4883,16 @@
       <c r="AG21" s="45"/>
       <c r="AH21" s="45"/>
       <c r="AI21" s="45"/>
-      <c r="AJ21" s="47"/>
+      <c r="AJ21" s="45"/>
       <c r="AK21" s="45"/>
       <c r="AL21" s="45"/>
       <c r="AM21" s="45"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="47"/>
       <c r="AP21" s="45"/>
       <c r="AQ21" s="45"/>
       <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
+      <c r="AS21" s="48"/>
       <c r="AT21" s="45"/>
       <c r="AU21" s="45"/>
       <c r="AV21" s="45"/>
@@ -4699,12 +4915,12 @@
       <c r="BM21" s="45"/>
       <c r="BN21" s="45"/>
       <c r="BO21" s="45"/>
-      <c r="BP21" s="48"/>
+      <c r="BP21" s="45"/>
       <c r="BQ21" s="45"/>
       <c r="BR21" s="45"/>
       <c r="BS21" s="45"/>
       <c r="BT21" s="45"/>
-      <c r="BU21" s="45"/>
+      <c r="BU21" s="48"/>
       <c r="BV21" s="45"/>
       <c r="BW21" s="45"/>
       <c r="BX21" s="45"/>
@@ -4746,12 +4962,12 @@
       <c r="DH21" s="45"/>
       <c r="DI21" s="45"/>
       <c r="DJ21" s="45"/>
-      <c r="DK21" s="49"/>
-      <c r="DL21" s="30"/>
-      <c r="DM21" s="30"/>
-      <c r="DN21" s="30"/>
-      <c r="DO21" s="30"/>
-      <c r="DP21" s="30"/>
+      <c r="DK21" s="45"/>
+      <c r="DL21" s="45"/>
+      <c r="DM21" s="45"/>
+      <c r="DN21" s="45"/>
+      <c r="DO21" s="45"/>
+      <c r="DP21" s="49"/>
       <c r="DQ21" s="30"/>
       <c r="DR21" s="30"/>
       <c r="DS21" s="30"/>
@@ -4777,38 +4993,53 @@
       <c r="EM21" s="30"/>
       <c r="EN21" s="30"/>
       <c r="EO21" s="30"/>
+      <c r="EP21" s="30"/>
+      <c r="EQ21" s="30"/>
+      <c r="ER21" s="30"/>
+      <c r="ES21" s="30"/>
+      <c r="ET21" s="30"/>
     </row>
-    <row r="22" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="7">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="28">
         <v>30</v>
       </c>
-      <c r="E22" s="33">
+      <c r="J22" s="33">
         <v>43402</v>
       </c>
-      <c r="F22" s="33">
+      <c r="K22" s="33">
         <f t="shared" si="100"/>
         <v>43432</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="46"/>
       <c r="U22" s="45"/>
       <c r="V22" s="45"/>
       <c r="W22" s="45"/>
@@ -4824,16 +5055,16 @@
       <c r="AG22" s="45"/>
       <c r="AH22" s="45"/>
       <c r="AI22" s="45"/>
-      <c r="AJ22" s="47"/>
+      <c r="AJ22" s="45"/>
       <c r="AK22" s="45"/>
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="47"/>
       <c r="AP22" s="45"/>
       <c r="AQ22" s="45"/>
       <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
+      <c r="AS22" s="48"/>
       <c r="AT22" s="45"/>
       <c r="AU22" s="45"/>
       <c r="AV22" s="45"/>
@@ -4856,12 +5087,12 @@
       <c r="BM22" s="45"/>
       <c r="BN22" s="45"/>
       <c r="BO22" s="45"/>
-      <c r="BP22" s="48"/>
+      <c r="BP22" s="45"/>
       <c r="BQ22" s="45"/>
       <c r="BR22" s="45"/>
       <c r="BS22" s="45"/>
       <c r="BT22" s="45"/>
-      <c r="BU22" s="45"/>
+      <c r="BU22" s="48"/>
       <c r="BV22" s="45"/>
       <c r="BW22" s="45"/>
       <c r="BX22" s="45"/>
@@ -4903,12 +5134,12 @@
       <c r="DH22" s="45"/>
       <c r="DI22" s="45"/>
       <c r="DJ22" s="45"/>
-      <c r="DK22" s="49"/>
-      <c r="DL22" s="30"/>
-      <c r="DM22" s="30"/>
-      <c r="DN22" s="30"/>
-      <c r="DO22" s="30"/>
-      <c r="DP22" s="30"/>
+      <c r="DK22" s="45"/>
+      <c r="DL22" s="45"/>
+      <c r="DM22" s="45"/>
+      <c r="DN22" s="45"/>
+      <c r="DO22" s="45"/>
+      <c r="DP22" s="49"/>
       <c r="DQ22" s="30"/>
       <c r="DR22" s="30"/>
       <c r="DS22" s="30"/>
@@ -4934,38 +5165,53 @@
       <c r="EM22" s="30"/>
       <c r="EN22" s="30"/>
       <c r="EO22" s="30"/>
+      <c r="EP22" s="30"/>
+      <c r="EQ22" s="30"/>
+      <c r="ER22" s="30"/>
+      <c r="ES22" s="30"/>
+      <c r="ET22" s="30"/>
     </row>
-    <row r="23" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="7">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <v>20</v>
+      </c>
+      <c r="H23" s="7">
+        <v>20</v>
+      </c>
+      <c r="I23" s="28">
         <v>30</v>
       </c>
-      <c r="E23" s="33">
+      <c r="J23" s="33">
         <v>43402</v>
       </c>
-      <c r="F23" s="33">
+      <c r="K23" s="33">
         <f t="shared" si="100"/>
         <v>43432</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="46"/>
       <c r="U23" s="45"/>
       <c r="V23" s="45"/>
       <c r="W23" s="45"/>
@@ -4981,16 +5227,16 @@
       <c r="AG23" s="45"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="45"/>
-      <c r="AJ23" s="47"/>
+      <c r="AJ23" s="45"/>
       <c r="AK23" s="45"/>
       <c r="AL23" s="45"/>
       <c r="AM23" s="45"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="47"/>
       <c r="AP23" s="45"/>
       <c r="AQ23" s="45"/>
       <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
+      <c r="AS23" s="48"/>
       <c r="AT23" s="45"/>
       <c r="AU23" s="45"/>
       <c r="AV23" s="45"/>
@@ -5013,12 +5259,12 @@
       <c r="BM23" s="45"/>
       <c r="BN23" s="45"/>
       <c r="BO23" s="45"/>
-      <c r="BP23" s="48"/>
+      <c r="BP23" s="45"/>
       <c r="BQ23" s="45"/>
       <c r="BR23" s="45"/>
       <c r="BS23" s="45"/>
       <c r="BT23" s="45"/>
-      <c r="BU23" s="45"/>
+      <c r="BU23" s="48"/>
       <c r="BV23" s="45"/>
       <c r="BW23" s="45"/>
       <c r="BX23" s="45"/>
@@ -5060,12 +5306,12 @@
       <c r="DH23" s="45"/>
       <c r="DI23" s="45"/>
       <c r="DJ23" s="45"/>
-      <c r="DK23" s="49"/>
-      <c r="DL23" s="30"/>
-      <c r="DM23" s="30"/>
-      <c r="DN23" s="30"/>
-      <c r="DO23" s="30"/>
-      <c r="DP23" s="30"/>
+      <c r="DK23" s="45"/>
+      <c r="DL23" s="45"/>
+      <c r="DM23" s="45"/>
+      <c r="DN23" s="45"/>
+      <c r="DO23" s="45"/>
+      <c r="DP23" s="49"/>
       <c r="DQ23" s="30"/>
       <c r="DR23" s="30"/>
       <c r="DS23" s="30"/>
@@ -5091,38 +5337,53 @@
       <c r="EM23" s="30"/>
       <c r="EN23" s="30"/>
       <c r="EO23" s="30"/>
+      <c r="EP23" s="30"/>
+      <c r="EQ23" s="30"/>
+      <c r="ER23" s="30"/>
+      <c r="ES23" s="30"/>
+      <c r="ET23" s="30"/>
     </row>
-    <row r="24" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="7">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6">
+        <v>20</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="28">
         <v>30</v>
       </c>
-      <c r="E24" s="33">
+      <c r="J24" s="33">
         <v>43416</v>
       </c>
-      <c r="F24" s="33">
+      <c r="K24" s="33">
         <f t="shared" si="100"/>
         <v>43446</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="46"/>
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="45"/>
@@ -5138,16 +5399,16 @@
       <c r="AG24" s="45"/>
       <c r="AH24" s="45"/>
       <c r="AI24" s="45"/>
-      <c r="AJ24" s="47"/>
+      <c r="AJ24" s="45"/>
       <c r="AK24" s="45"/>
       <c r="AL24" s="45"/>
       <c r="AM24" s="45"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="45"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="47"/>
       <c r="AP24" s="45"/>
       <c r="AQ24" s="45"/>
       <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
+      <c r="AS24" s="48"/>
       <c r="AT24" s="45"/>
       <c r="AU24" s="45"/>
       <c r="AV24" s="45"/>
@@ -5170,12 +5431,12 @@
       <c r="BM24" s="45"/>
       <c r="BN24" s="45"/>
       <c r="BO24" s="45"/>
-      <c r="BP24" s="48"/>
+      <c r="BP24" s="45"/>
       <c r="BQ24" s="45"/>
       <c r="BR24" s="45"/>
       <c r="BS24" s="45"/>
       <c r="BT24" s="45"/>
-      <c r="BU24" s="45"/>
+      <c r="BU24" s="48"/>
       <c r="BV24" s="45"/>
       <c r="BW24" s="45"/>
       <c r="BX24" s="45"/>
@@ -5217,12 +5478,12 @@
       <c r="DH24" s="45"/>
       <c r="DI24" s="45"/>
       <c r="DJ24" s="45"/>
-      <c r="DK24" s="49"/>
-      <c r="DL24" s="30"/>
-      <c r="DM24" s="30"/>
-      <c r="DN24" s="30"/>
-      <c r="DO24" s="30"/>
-      <c r="DP24" s="30"/>
+      <c r="DK24" s="45"/>
+      <c r="DL24" s="45"/>
+      <c r="DM24" s="45"/>
+      <c r="DN24" s="45"/>
+      <c r="DO24" s="45"/>
+      <c r="DP24" s="49"/>
       <c r="DQ24" s="30"/>
       <c r="DR24" s="30"/>
       <c r="DS24" s="30"/>
@@ -5248,38 +5509,53 @@
       <c r="EM24" s="30"/>
       <c r="EN24" s="30"/>
       <c r="EO24" s="30"/>
+      <c r="EP24" s="30"/>
+      <c r="EQ24" s="30"/>
+      <c r="ER24" s="30"/>
+      <c r="ES24" s="30"/>
+      <c r="ET24" s="30"/>
     </row>
-    <row r="25" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B25" s="26">
         <v>8</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20</v>
+      </c>
+      <c r="F25" s="6">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6">
+        <v>20</v>
+      </c>
+      <c r="I25" s="28">
         <v>4</v>
       </c>
-      <c r="E25" s="33">
+      <c r="J25" s="33">
         <v>43424</v>
       </c>
-      <c r="F25" s="33">
+      <c r="K25" s="33">
         <f t="shared" si="100"/>
         <v>43428</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="46"/>
       <c r="U25" s="45"/>
       <c r="V25" s="45"/>
       <c r="W25" s="45"/>
@@ -5295,16 +5571,16 @@
       <c r="AG25" s="45"/>
       <c r="AH25" s="45"/>
       <c r="AI25" s="45"/>
-      <c r="AJ25" s="47"/>
+      <c r="AJ25" s="45"/>
       <c r="AK25" s="45"/>
       <c r="AL25" s="45"/>
       <c r="AM25" s="45"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="47"/>
       <c r="AP25" s="45"/>
       <c r="AQ25" s="45"/>
       <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
+      <c r="AS25" s="48"/>
       <c r="AT25" s="45"/>
       <c r="AU25" s="45"/>
       <c r="AV25" s="45"/>
@@ -5327,12 +5603,12 @@
       <c r="BM25" s="45"/>
       <c r="BN25" s="45"/>
       <c r="BO25" s="45"/>
-      <c r="BP25" s="48"/>
+      <c r="BP25" s="45"/>
       <c r="BQ25" s="45"/>
       <c r="BR25" s="45"/>
       <c r="BS25" s="45"/>
       <c r="BT25" s="45"/>
-      <c r="BU25" s="45"/>
+      <c r="BU25" s="48"/>
       <c r="BV25" s="45"/>
       <c r="BW25" s="45"/>
       <c r="BX25" s="45"/>
@@ -5374,12 +5650,12 @@
       <c r="DH25" s="45"/>
       <c r="DI25" s="45"/>
       <c r="DJ25" s="45"/>
-      <c r="DK25" s="49"/>
-      <c r="DL25" s="30"/>
-      <c r="DM25" s="30"/>
-      <c r="DN25" s="30"/>
-      <c r="DO25" s="30"/>
-      <c r="DP25" s="30"/>
+      <c r="DK25" s="45"/>
+      <c r="DL25" s="45"/>
+      <c r="DM25" s="45"/>
+      <c r="DN25" s="45"/>
+      <c r="DO25" s="45"/>
+      <c r="DP25" s="49"/>
       <c r="DQ25" s="30"/>
       <c r="DR25" s="30"/>
       <c r="DS25" s="30"/>
@@ -5405,28 +5681,33 @@
       <c r="EM25" s="30"/>
       <c r="EN25" s="30"/>
       <c r="EO25" s="30"/>
+      <c r="EP25" s="30"/>
+      <c r="EQ25" s="30"/>
+      <c r="ER25" s="30"/>
+      <c r="ES25" s="30"/>
+      <c r="ET25" s="30"/>
     </row>
-    <row r="26" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="28">
         <v>0</v>
       </c>
-      <c r="E26" s="33">
+      <c r="J26" s="33">
         <v>43429</v>
       </c>
-      <c r="F26" s="33">
+      <c r="K26" s="33">
         <f t="shared" si="100"/>
         <v>43429</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="45"/>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
@@ -5450,16 +5731,16 @@
       <c r="AG26" s="45"/>
       <c r="AH26" s="45"/>
       <c r="AI26" s="45"/>
-      <c r="AJ26" s="47"/>
+      <c r="AJ26" s="45"/>
       <c r="AK26" s="45"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="45"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="45"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="47"/>
       <c r="AP26" s="45"/>
       <c r="AQ26" s="45"/>
       <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
+      <c r="AS26" s="48"/>
       <c r="AT26" s="45"/>
       <c r="AU26" s="45"/>
       <c r="AV26" s="45"/>
@@ -5482,12 +5763,12 @@
       <c r="BM26" s="45"/>
       <c r="BN26" s="45"/>
       <c r="BO26" s="45"/>
-      <c r="BP26" s="48"/>
+      <c r="BP26" s="45"/>
       <c r="BQ26" s="45"/>
       <c r="BR26" s="45"/>
       <c r="BS26" s="45"/>
       <c r="BT26" s="45"/>
-      <c r="BU26" s="45"/>
+      <c r="BU26" s="48"/>
       <c r="BV26" s="45"/>
       <c r="BW26" s="45"/>
       <c r="BX26" s="45"/>
@@ -5529,12 +5810,12 @@
       <c r="DH26" s="45"/>
       <c r="DI26" s="45"/>
       <c r="DJ26" s="45"/>
-      <c r="DK26" s="49"/>
-      <c r="DL26" s="30"/>
-      <c r="DM26" s="30"/>
-      <c r="DN26" s="30"/>
-      <c r="DO26" s="30"/>
-      <c r="DP26" s="30"/>
+      <c r="DK26" s="45"/>
+      <c r="DL26" s="45"/>
+      <c r="DM26" s="45"/>
+      <c r="DN26" s="45"/>
+      <c r="DO26" s="45"/>
+      <c r="DP26" s="49"/>
       <c r="DQ26" s="30"/>
       <c r="DR26" s="30"/>
       <c r="DS26" s="30"/>
@@ -5560,21 +5841,26 @@
       <c r="EM26" s="30"/>
       <c r="EN26" s="30"/>
       <c r="EO26" s="30"/>
+      <c r="EP26" s="30"/>
+      <c r="EQ26" s="30"/>
+      <c r="ER26" s="30"/>
+      <c r="ES26" s="30"/>
+      <c r="ET26" s="30"/>
     </row>
-    <row r="27" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
@@ -5598,16 +5884,16 @@
       <c r="AG27" s="45"/>
       <c r="AH27" s="45"/>
       <c r="AI27" s="45"/>
-      <c r="AJ27" s="47"/>
+      <c r="AJ27" s="45"/>
       <c r="AK27" s="45"/>
       <c r="AL27" s="45"/>
       <c r="AM27" s="45"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="47"/>
       <c r="AP27" s="45"/>
       <c r="AQ27" s="45"/>
       <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
+      <c r="AS27" s="48"/>
       <c r="AT27" s="45"/>
       <c r="AU27" s="45"/>
       <c r="AV27" s="45"/>
@@ -5630,12 +5916,12 @@
       <c r="BM27" s="45"/>
       <c r="BN27" s="45"/>
       <c r="BO27" s="45"/>
-      <c r="BP27" s="48"/>
+      <c r="BP27" s="45"/>
       <c r="BQ27" s="45"/>
       <c r="BR27" s="45"/>
       <c r="BS27" s="45"/>
       <c r="BT27" s="45"/>
-      <c r="BU27" s="45"/>
+      <c r="BU27" s="48"/>
       <c r="BV27" s="45"/>
       <c r="BW27" s="45"/>
       <c r="BX27" s="45"/>
@@ -5677,12 +5963,12 @@
       <c r="DH27" s="45"/>
       <c r="DI27" s="45"/>
       <c r="DJ27" s="45"/>
-      <c r="DK27" s="49"/>
-      <c r="DL27" s="30"/>
-      <c r="DM27" s="30"/>
-      <c r="DN27" s="30"/>
-      <c r="DO27" s="30"/>
-      <c r="DP27" s="30"/>
+      <c r="DK27" s="45"/>
+      <c r="DL27" s="45"/>
+      <c r="DM27" s="45"/>
+      <c r="DN27" s="45"/>
+      <c r="DO27" s="45"/>
+      <c r="DP27" s="49"/>
       <c r="DQ27" s="30"/>
       <c r="DR27" s="30"/>
       <c r="DS27" s="30"/>
@@ -5708,30 +5994,45 @@
       <c r="EM27" s="30"/>
       <c r="EN27" s="30"/>
       <c r="EO27" s="30"/>
+      <c r="EP27" s="30"/>
+      <c r="EQ27" s="30"/>
+      <c r="ER27" s="30"/>
+      <c r="ES27" s="30"/>
+      <c r="ET27" s="30"/>
     </row>
-    <row r="28" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B28" s="26">
         <v>9</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="6">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6">
+        <v>20</v>
+      </c>
+      <c r="H28" s="6">
+        <v>20</v>
+      </c>
+      <c r="I28" s="39">
         <v>10</v>
       </c>
-      <c r="E28" s="33">
+      <c r="J28" s="33">
         <v>43437</v>
       </c>
-      <c r="F28" s="33">
+      <c r="K28" s="33">
         <f t="shared" si="100"/>
         <v>43447</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
@@ -5755,16 +6056,16 @@
       <c r="AG28" s="45"/>
       <c r="AH28" s="45"/>
       <c r="AI28" s="45"/>
-      <c r="AJ28" s="47"/>
+      <c r="AJ28" s="45"/>
       <c r="AK28" s="45"/>
       <c r="AL28" s="45"/>
       <c r="AM28" s="45"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="47"/>
       <c r="AP28" s="45"/>
       <c r="AQ28" s="45"/>
       <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
+      <c r="AS28" s="48"/>
       <c r="AT28" s="45"/>
       <c r="AU28" s="45"/>
       <c r="AV28" s="45"/>
@@ -5787,12 +6088,12 @@
       <c r="BM28" s="45"/>
       <c r="BN28" s="45"/>
       <c r="BO28" s="45"/>
-      <c r="BP28" s="48"/>
+      <c r="BP28" s="45"/>
       <c r="BQ28" s="45"/>
       <c r="BR28" s="45"/>
       <c r="BS28" s="45"/>
       <c r="BT28" s="45"/>
-      <c r="BU28" s="45"/>
+      <c r="BU28" s="48"/>
       <c r="BV28" s="45"/>
       <c r="BW28" s="45"/>
       <c r="BX28" s="45"/>
@@ -5834,12 +6135,12 @@
       <c r="DH28" s="45"/>
       <c r="DI28" s="45"/>
       <c r="DJ28" s="45"/>
-      <c r="DK28" s="49"/>
-      <c r="DL28" s="30"/>
-      <c r="DM28" s="30"/>
-      <c r="DN28" s="30"/>
-      <c r="DO28" s="30"/>
-      <c r="DP28" s="30"/>
+      <c r="DK28" s="45"/>
+      <c r="DL28" s="45"/>
+      <c r="DM28" s="45"/>
+      <c r="DN28" s="45"/>
+      <c r="DO28" s="45"/>
+      <c r="DP28" s="49"/>
       <c r="DQ28" s="30"/>
       <c r="DR28" s="30"/>
       <c r="DS28" s="30"/>
@@ -5865,30 +6166,45 @@
       <c r="EM28" s="30"/>
       <c r="EN28" s="30"/>
       <c r="EO28" s="30"/>
+      <c r="EP28" s="30"/>
+      <c r="EQ28" s="30"/>
+      <c r="ER28" s="30"/>
+      <c r="ES28" s="30"/>
+      <c r="ET28" s="30"/>
     </row>
-    <row r="29" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B29" s="26">
         <v>10</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="6">
+        <v>20</v>
+      </c>
+      <c r="E29" s="6">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
+        <v>20</v>
+      </c>
+      <c r="I29" s="28">
         <v>15</v>
       </c>
-      <c r="E29" s="33">
+      <c r="J29" s="33">
         <v>43448</v>
       </c>
-      <c r="F29" s="33">
+      <c r="K29" s="33">
         <f t="shared" si="100"/>
         <v>43463</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
@@ -5912,16 +6228,16 @@
       <c r="AG29" s="45"/>
       <c r="AH29" s="45"/>
       <c r="AI29" s="45"/>
-      <c r="AJ29" s="47"/>
+      <c r="AJ29" s="45"/>
       <c r="AK29" s="45"/>
       <c r="AL29" s="45"/>
       <c r="AM29" s="45"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="47"/>
       <c r="AP29" s="45"/>
       <c r="AQ29" s="45"/>
       <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
+      <c r="AS29" s="48"/>
       <c r="AT29" s="45"/>
       <c r="AU29" s="45"/>
       <c r="AV29" s="45"/>
@@ -5944,12 +6260,12 @@
       <c r="BM29" s="45"/>
       <c r="BN29" s="45"/>
       <c r="BO29" s="45"/>
-      <c r="BP29" s="48"/>
+      <c r="BP29" s="45"/>
       <c r="BQ29" s="45"/>
       <c r="BR29" s="45"/>
       <c r="BS29" s="45"/>
       <c r="BT29" s="45"/>
-      <c r="BU29" s="45"/>
+      <c r="BU29" s="48"/>
       <c r="BV29" s="45"/>
       <c r="BW29" s="45"/>
       <c r="BX29" s="45"/>
@@ -5991,12 +6307,12 @@
       <c r="DH29" s="45"/>
       <c r="DI29" s="45"/>
       <c r="DJ29" s="45"/>
-      <c r="DK29" s="49"/>
-      <c r="DL29" s="30"/>
-      <c r="DM29" s="30"/>
-      <c r="DN29" s="30"/>
-      <c r="DO29" s="30"/>
-      <c r="DP29" s="30"/>
+      <c r="DK29" s="45"/>
+      <c r="DL29" s="45"/>
+      <c r="DM29" s="45"/>
+      <c r="DN29" s="45"/>
+      <c r="DO29" s="45"/>
+      <c r="DP29" s="49"/>
       <c r="DQ29" s="30"/>
       <c r="DR29" s="30"/>
       <c r="DS29" s="30"/>
@@ -6022,30 +6338,45 @@
       <c r="EM29" s="30"/>
       <c r="EN29" s="30"/>
       <c r="EO29" s="30"/>
+      <c r="EP29" s="30"/>
+      <c r="EQ29" s="30"/>
+      <c r="ER29" s="30"/>
+      <c r="ES29" s="30"/>
+      <c r="ET29" s="30"/>
     </row>
-    <row r="30" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
         <v>11</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="6">
+        <v>20</v>
+      </c>
+      <c r="E30" s="6">
+        <v>20</v>
+      </c>
+      <c r="F30" s="6">
+        <v>20</v>
+      </c>
+      <c r="G30" s="6">
+        <v>20</v>
+      </c>
+      <c r="H30" s="6">
+        <v>20</v>
+      </c>
+      <c r="I30" s="28">
         <v>7</v>
       </c>
-      <c r="E30" s="33">
+      <c r="J30" s="33">
         <v>43464</v>
       </c>
-      <c r="F30" s="33">
+      <c r="K30" s="33">
         <f t="shared" si="100"/>
         <v>43471</v>
       </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
@@ -6069,16 +6400,16 @@
       <c r="AG30" s="45"/>
       <c r="AH30" s="45"/>
       <c r="AI30" s="45"/>
-      <c r="AJ30" s="47"/>
+      <c r="AJ30" s="45"/>
       <c r="AK30" s="45"/>
       <c r="AL30" s="45"/>
       <c r="AM30" s="45"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="47"/>
       <c r="AP30" s="45"/>
       <c r="AQ30" s="45"/>
       <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AS30" s="48"/>
       <c r="AT30" s="45"/>
       <c r="AU30" s="45"/>
       <c r="AV30" s="45"/>
@@ -6101,12 +6432,12 @@
       <c r="BM30" s="45"/>
       <c r="BN30" s="45"/>
       <c r="BO30" s="45"/>
-      <c r="BP30" s="48"/>
+      <c r="BP30" s="45"/>
       <c r="BQ30" s="45"/>
       <c r="BR30" s="45"/>
       <c r="BS30" s="45"/>
       <c r="BT30" s="45"/>
-      <c r="BU30" s="45"/>
+      <c r="BU30" s="48"/>
       <c r="BV30" s="45"/>
       <c r="BW30" s="45"/>
       <c r="BX30" s="45"/>
@@ -6148,12 +6479,12 @@
       <c r="DH30" s="45"/>
       <c r="DI30" s="45"/>
       <c r="DJ30" s="45"/>
-      <c r="DK30" s="49"/>
-      <c r="DL30" s="30"/>
-      <c r="DM30" s="30"/>
-      <c r="DN30" s="30"/>
-      <c r="DO30" s="30"/>
-      <c r="DP30" s="30"/>
+      <c r="DK30" s="45"/>
+      <c r="DL30" s="45"/>
+      <c r="DM30" s="45"/>
+      <c r="DN30" s="45"/>
+      <c r="DO30" s="45"/>
+      <c r="DP30" s="49"/>
       <c r="DQ30" s="30"/>
       <c r="DR30" s="30"/>
       <c r="DS30" s="30"/>
@@ -6179,28 +6510,43 @@
       <c r="EM30" s="30"/>
       <c r="EN30" s="30"/>
       <c r="EO30" s="30"/>
+      <c r="EP30" s="30"/>
+      <c r="EQ30" s="30"/>
+      <c r="ER30" s="30"/>
+      <c r="ES30" s="30"/>
+      <c r="ET30" s="30"/>
     </row>
-    <row r="31" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:150" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="6">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6">
+        <v>20</v>
+      </c>
+      <c r="F31" s="6">
+        <v>20</v>
+      </c>
+      <c r="G31" s="6">
+        <v>20</v>
+      </c>
+      <c r="H31" s="6">
+        <v>20</v>
+      </c>
+      <c r="I31" s="28">
         <v>0</v>
       </c>
-      <c r="E31" s="33">
+      <c r="J31" s="33">
         <v>43476</v>
       </c>
-      <c r="F31" s="33">
+      <c r="K31" s="33">
         <f t="shared" si="100"/>
         <v>43476</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
       <c r="O31" s="45"/>
@@ -6224,16 +6570,16 @@
       <c r="AG31" s="45"/>
       <c r="AH31" s="45"/>
       <c r="AI31" s="45"/>
-      <c r="AJ31" s="47"/>
+      <c r="AJ31" s="45"/>
       <c r="AK31" s="45"/>
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="47"/>
       <c r="AP31" s="45"/>
       <c r="AQ31" s="45"/>
       <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
+      <c r="AS31" s="48"/>
       <c r="AT31" s="45"/>
       <c r="AU31" s="45"/>
       <c r="AV31" s="45"/>
@@ -6256,12 +6602,12 @@
       <c r="BM31" s="45"/>
       <c r="BN31" s="45"/>
       <c r="BO31" s="45"/>
-      <c r="BP31" s="48"/>
+      <c r="BP31" s="45"/>
       <c r="BQ31" s="45"/>
       <c r="BR31" s="45"/>
       <c r="BS31" s="45"/>
       <c r="BT31" s="45"/>
-      <c r="BU31" s="45"/>
+      <c r="BU31" s="48"/>
       <c r="BV31" s="45"/>
       <c r="BW31" s="45"/>
       <c r="BX31" s="45"/>
@@ -6303,12 +6649,12 @@
       <c r="DH31" s="45"/>
       <c r="DI31" s="45"/>
       <c r="DJ31" s="45"/>
-      <c r="DK31" s="49"/>
-      <c r="DL31" s="30"/>
-      <c r="DM31" s="30"/>
-      <c r="DN31" s="30"/>
-      <c r="DO31" s="30"/>
-      <c r="DP31" s="30"/>
+      <c r="DK31" s="45"/>
+      <c r="DL31" s="45"/>
+      <c r="DM31" s="45"/>
+      <c r="DN31" s="45"/>
+      <c r="DO31" s="45"/>
+      <c r="DP31" s="49"/>
       <c r="DQ31" s="30"/>
       <c r="DR31" s="30"/>
       <c r="DS31" s="30"/>
@@ -6334,243 +6680,260 @@
       <c r="EM31" s="30"/>
       <c r="EN31" s="30"/>
       <c r="EO31" s="30"/>
+      <c r="EP31" s="30"/>
+      <c r="EQ31" s="30"/>
+      <c r="ER31" s="30"/>
+      <c r="ES31" s="30"/>
+      <c r="ET31" s="30"/>
     </row>
-    <row r="32" spans="2:145" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:150" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
-      <c r="G33" s="71" t="s">
+      <c r="L33" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
       <c r="M33" s="71"/>
       <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" s="42"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="72" t="s">
+      <c r="L34" s="12"/>
+      <c r="M34" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
       <c r="N34" s="72"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="74" t="s">
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
       <c r="V34" s="75"/>
       <c r="W34" s="75"/>
       <c r="X34" s="75"/>
-      <c r="Y34" s="76"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="76"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="73" t="s">
+      <c r="L35" s="13"/>
+      <c r="M35" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
       <c r="N35" s="73"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="77" t="s">
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
       <c r="V35" s="75"/>
       <c r="W35" s="75"/>
       <c r="X35" s="75"/>
-      <c r="Y35" s="76"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="76"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
       <c r="U36" s="78"/>
       <c r="V36" s="78"/>
       <c r="W36" s="78"/>
       <c r="X36" s="78"/>
       <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="78"/>
+      <c r="AC36" s="78"/>
+      <c r="AD36" s="78"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
+      <c r="L37" s="30"/>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="L38" s="30"/>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="G39" s="30"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="L39" s="30"/>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="P34:Y34"/>
-    <mergeCell ref="P35:Y35"/>
-    <mergeCell ref="P36:Y36"/>
-    <mergeCell ref="W3:W4"/>
+  <mergeCells count="146">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="U34:AD34"/>
+    <mergeCell ref="U35:AD35"/>
+    <mergeCell ref="U36:AD36"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="L33:S33"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
     <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="G33:N33"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AX3:AX4"/>
     <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="AP3:AP4"/>
     <mergeCell ref="AQ3:AQ4"/>
     <mergeCell ref="AR3:AR4"/>
     <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BF4"/>
+    <mergeCell ref="BG3:BG4"/>
+    <mergeCell ref="BH3:BH4"/>
     <mergeCell ref="AY3:AY4"/>
     <mergeCell ref="AZ3:AZ4"/>
     <mergeCell ref="BA3:BA4"/>
     <mergeCell ref="BB3:BB4"/>
     <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="BN3:BN4"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BP4"/>
+    <mergeCell ref="BQ3:BQ4"/>
+    <mergeCell ref="BR3:BR4"/>
     <mergeCell ref="BI3:BI4"/>
     <mergeCell ref="BJ3:BJ4"/>
     <mergeCell ref="BK3:BK4"/>
     <mergeCell ref="BL3:BL4"/>
     <mergeCell ref="BM3:BM4"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BF4"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="BH3:BH4"/>
+    <mergeCell ref="BX3:BX4"/>
+    <mergeCell ref="BY3:BY4"/>
+    <mergeCell ref="BZ3:BZ4"/>
+    <mergeCell ref="CA3:CA4"/>
+    <mergeCell ref="CB3:CB4"/>
     <mergeCell ref="BS3:BS4"/>
     <mergeCell ref="BT3:BT4"/>
     <mergeCell ref="BU3:BU4"/>
     <mergeCell ref="BV3:BV4"/>
     <mergeCell ref="BW3:BW4"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BP4"/>
-    <mergeCell ref="BQ3:BQ4"/>
-    <mergeCell ref="BR3:BR4"/>
+    <mergeCell ref="CH3:CH4"/>
+    <mergeCell ref="CI3:CI4"/>
+    <mergeCell ref="CJ3:CJ4"/>
+    <mergeCell ref="CK3:CK4"/>
+    <mergeCell ref="CL3:CL4"/>
     <mergeCell ref="CC3:CC4"/>
     <mergeCell ref="CD3:CD4"/>
     <mergeCell ref="CE3:CE4"/>
     <mergeCell ref="CF3:CF4"/>
     <mergeCell ref="CG3:CG4"/>
-    <mergeCell ref="BX3:BX4"/>
-    <mergeCell ref="BY3:BY4"/>
-    <mergeCell ref="BZ3:BZ4"/>
-    <mergeCell ref="CA3:CA4"/>
-    <mergeCell ref="CB3:CB4"/>
+    <mergeCell ref="CR3:CR4"/>
+    <mergeCell ref="CS3:CS4"/>
+    <mergeCell ref="CT3:CT4"/>
+    <mergeCell ref="CU3:CU4"/>
+    <mergeCell ref="CV3:CV4"/>
     <mergeCell ref="CM3:CM4"/>
     <mergeCell ref="CN3:CN4"/>
     <mergeCell ref="CO3:CO4"/>
     <mergeCell ref="CP3:CP4"/>
     <mergeCell ref="CQ3:CQ4"/>
-    <mergeCell ref="CH3:CH4"/>
-    <mergeCell ref="CI3:CI4"/>
-    <mergeCell ref="CJ3:CJ4"/>
-    <mergeCell ref="CK3:CK4"/>
-    <mergeCell ref="CL3:CL4"/>
+    <mergeCell ref="DB3:DB4"/>
+    <mergeCell ref="DC3:DC4"/>
+    <mergeCell ref="DD3:DD4"/>
+    <mergeCell ref="DE3:DE4"/>
+    <mergeCell ref="DF3:DF4"/>
     <mergeCell ref="CW3:CW4"/>
     <mergeCell ref="CX3:CX4"/>
     <mergeCell ref="CY3:CY4"/>
     <mergeCell ref="CZ3:CZ4"/>
     <mergeCell ref="DA3:DA4"/>
-    <mergeCell ref="CR3:CR4"/>
-    <mergeCell ref="CS3:CS4"/>
-    <mergeCell ref="CT3:CT4"/>
-    <mergeCell ref="CU3:CU4"/>
-    <mergeCell ref="CV3:CV4"/>
+    <mergeCell ref="DL3:DL4"/>
+    <mergeCell ref="DM3:DM4"/>
+    <mergeCell ref="DN3:DN4"/>
+    <mergeCell ref="DO3:DO4"/>
+    <mergeCell ref="DP3:DP4"/>
     <mergeCell ref="DG3:DG4"/>
     <mergeCell ref="DH3:DH4"/>
     <mergeCell ref="DI3:DI4"/>
     <mergeCell ref="DJ3:DJ4"/>
     <mergeCell ref="DK3:DK4"/>
-    <mergeCell ref="DB3:DB4"/>
-    <mergeCell ref="DC3:DC4"/>
-    <mergeCell ref="DD3:DD4"/>
-    <mergeCell ref="DE3:DE4"/>
-    <mergeCell ref="DF3:DF4"/>
-    <mergeCell ref="DM3:DM4"/>
-    <mergeCell ref="DN3:DN4"/>
-    <mergeCell ref="DO3:DO4"/>
-    <mergeCell ref="DP3:DP4"/>
-    <mergeCell ref="DQ3:DQ4"/>
-    <mergeCell ref="EO3:EO4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="DR3:DR4"/>
+    <mergeCell ref="DS3:DS4"/>
+    <mergeCell ref="DT3:DT4"/>
+    <mergeCell ref="DU3:DU4"/>
+    <mergeCell ref="DV3:DV4"/>
+    <mergeCell ref="ET3:ET4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
@@ -6578,34 +6941,39 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="EL3:EL4"/>
+    <mergeCell ref="EM3:EM4"/>
+    <mergeCell ref="EN3:EN4"/>
+    <mergeCell ref="EO3:EO4"/>
+    <mergeCell ref="EP3:EP4"/>
+    <mergeCell ref="DQ3:DQ4"/>
+    <mergeCell ref="EQ3:EQ4"/>
+    <mergeCell ref="ER3:ER4"/>
+    <mergeCell ref="ES3:ES4"/>
+    <mergeCell ref="EC3:EC4"/>
+    <mergeCell ref="ED3:ED4"/>
+    <mergeCell ref="EE3:EE4"/>
+    <mergeCell ref="EF3:EF4"/>
+    <mergeCell ref="DW3:DW4"/>
+    <mergeCell ref="DX3:DX4"/>
+    <mergeCell ref="DY3:DY4"/>
+    <mergeCell ref="DZ3:DZ4"/>
+    <mergeCell ref="EA3:EA4"/>
     <mergeCell ref="EG3:EG4"/>
     <mergeCell ref="EH3:EH4"/>
     <mergeCell ref="EI3:EI4"/>
     <mergeCell ref="EJ3:EJ4"/>
     <mergeCell ref="EK3:EK4"/>
-    <mergeCell ref="DL3:DL4"/>
-    <mergeCell ref="EL3:EL4"/>
-    <mergeCell ref="EM3:EM4"/>
-    <mergeCell ref="EN3:EN4"/>
-    <mergeCell ref="DX3:DX4"/>
-    <mergeCell ref="DY3:DY4"/>
-    <mergeCell ref="DZ3:DZ4"/>
-    <mergeCell ref="EA3:EA4"/>
-    <mergeCell ref="DR3:DR4"/>
-    <mergeCell ref="DS3:DS4"/>
-    <mergeCell ref="DT3:DT4"/>
-    <mergeCell ref="DU3:DU4"/>
-    <mergeCell ref="DV3:DV4"/>
     <mergeCell ref="EB3:EB4"/>
-    <mergeCell ref="EC3:EC4"/>
-    <mergeCell ref="ED3:ED4"/>
-    <mergeCell ref="EE3:EE4"/>
-    <mergeCell ref="EF3:EF4"/>
-    <mergeCell ref="DW3:DW4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:DK31">
+  <conditionalFormatting sqref="L5:DP31">
     <cfRule type="expression" dxfId="5" priority="10">
-      <formula>AND(G$3&gt;=$E5,G$3&lt;=SUM($E5,$D5))</formula>
+      <formula>AND(L$3&gt;=$J5,L$3&lt;=SUM($J5,$I5))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6614,10 +6982,1160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="25" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="34">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="26">
+        <v>5</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20</v>
+      </c>
+      <c r="G12" s="6">
+        <v>20</v>
+      </c>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="34">
+        <v>6</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>50</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="34">
+        <v>7</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6">
+        <v>20</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6">
+        <v>20</v>
+      </c>
+      <c r="H19" s="7">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6">
+        <v>20</v>
+      </c>
+      <c r="H20" s="7">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="26">
+        <v>8</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <v>20</v>
+      </c>
+      <c r="H23" s="6">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6">
+        <v>20</v>
+      </c>
+      <c r="E26" s="6">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6">
+        <v>20</v>
+      </c>
+      <c r="G26" s="6">
+        <v>20</v>
+      </c>
+      <c r="H26" s="6">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="26">
+        <v>10</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6">
+        <v>20</v>
+      </c>
+      <c r="G27" s="6">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="26">
+        <v>11</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6">
+        <v>20</v>
+      </c>
+      <c r="H28" s="6">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6">
+        <v>20</v>
+      </c>
+      <c r="E29" s="6">
+        <v>20</v>
+      </c>
+      <c r="F29" s="6">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:EO47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -12049,9 +13567,6 @@
     <mergeCell ref="AZ3:AZ4"/>
     <mergeCell ref="BA3:BA4"/>
     <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
     <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="AU3:AU4"/>
     <mergeCell ref="AV3:AV4"/>
@@ -12061,27 +13576,24 @@
     <mergeCell ref="AN3:AN4"/>
     <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AA3:AA4"/>
@@ -12096,6 +13608,12 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="H34:N34"/>
     <mergeCell ref="H35:N35"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:DK31">
     <cfRule type="expression" dxfId="4" priority="11">
@@ -12119,12 +13637,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4A83-589A-4DEA-9D9D-BBDF4823C361}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12132,7 +13650,11 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="25" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12171,7 +13693,7 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
         <v>35</v>
@@ -12181,7 +13703,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="51"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -12211,13 +13733,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -12365,13 +13887,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G8" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -12403,19 +13925,19 @@
         <v>22</v>
       </c>
       <c r="D9" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -12447,13 +13969,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -12526,19 +14048,19 @@
         <v>33</v>
       </c>
       <c r="D12" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -12820,19 +14342,19 @@
         <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F20" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G20" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -12902,19 +14424,19 @@
         <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F22" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G22" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -12957,1088 +14479,6 @@
       <c r="H23" s="6">
         <v>20</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="26">
-        <v>9</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="6">
-        <v>20</v>
-      </c>
-      <c r="E26" s="6">
-        <v>20</v>
-      </c>
-      <c r="F26" s="6">
-        <v>20</v>
-      </c>
-      <c r="G26" s="6">
-        <v>20</v>
-      </c>
-      <c r="H26" s="6">
-        <v>20</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="26">
-        <v>10</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="6">
-        <v>20</v>
-      </c>
-      <c r="E27" s="6">
-        <v>20</v>
-      </c>
-      <c r="F27" s="6">
-        <v>20</v>
-      </c>
-      <c r="G27" s="6">
-        <v>20</v>
-      </c>
-      <c r="H27" s="6">
-        <v>20</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="26">
-        <v>11</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6">
-        <v>20</v>
-      </c>
-      <c r="E28" s="6">
-        <v>20</v>
-      </c>
-      <c r="F28" s="6">
-        <v>20</v>
-      </c>
-      <c r="G28" s="6">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6">
-        <v>20</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="6">
-        <v>20</v>
-      </c>
-      <c r="E29" s="6">
-        <v>20</v>
-      </c>
-      <c r="F29" s="6">
-        <v>20</v>
-      </c>
-      <c r="G29" s="6">
-        <v>20</v>
-      </c>
-      <c r="H29" s="6">
-        <v>20</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BA4A83-589A-4DEA-9D9D-BBDF4823C361}">
-  <dimension ref="A1:Y32"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="B2:H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="25" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>50</v>
-      </c>
-      <c r="F4" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="26">
-        <v>2</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6">
-        <v>50</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>50</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="26">
-        <v>3</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6">
-        <v>50</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="34">
-        <v>4</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7">
-        <v>60</v>
-      </c>
-      <c r="G8" s="7">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7">
-        <v>35</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>100</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6">
-        <v>50</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>50</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="26">
-        <v>5</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6">
-        <v>25</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6">
-        <v>25</v>
-      </c>
-      <c r="H12" s="6">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6">
-        <v>20</v>
-      </c>
-      <c r="F13" s="6">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="34">
-        <v>6</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="34">
-        <v>7</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="26">
-        <v>8</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
